--- a/data/有效已结束项目任务位置数据.xlsx
+++ b/data/有效已结束项目任务位置数据.xlsx
@@ -466,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.032516967097429</v>
+        <v>0.1050810597774046</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8132835830869092</v>
+        <v>0.1018909138106276</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9851972751155206</v>
+        <v>0.1120136361067113</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.466003861735365</v>
+        <v>0.2257974810178348</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.00301717861494</v>
+        <v>0.1292056444555971</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.468637193431392</v>
+        <v>0.2252352884532167</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.046798628601593</v>
+        <v>0.1241573999424418</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1.00486433631545</v>
+        <v>0.1224108309151056</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1.026353043383389</v>
+        <v>0.2098103795008179</v>
       </c>
     </row>
     <row r="11">
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9917164709249772</v>
+        <v>0.1586452788218629</v>
       </c>
     </row>
     <row r="12">
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1.029990775966599</v>
+        <v>0.1679567594818484</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1.045526258906785</v>
+        <v>0.1694266833059543</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1.056069485571236</v>
+        <v>0.1221875730955503</v>
       </c>
     </row>
     <row r="15">
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.060627189436862</v>
+        <v>0.1824615169158543</v>
       </c>
     </row>
     <row r="16">
@@ -662,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1.077765229451491</v>
+        <v>0.1850034620961742</v>
       </c>
     </row>
     <row r="17">
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9966580440251434</v>
+        <v>0.1613204721045763</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1.022720040729646</v>
+        <v>0.1721435470440377</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1.032727251311002</v>
+        <v>0.2092735296749109</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1.055030344408273</v>
+        <v>0.1253185455559426</v>
       </c>
     </row>
     <row r="21">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1.08192147922089</v>
+        <v>0.1861522321492159</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1.074760902327832</v>
+        <v>0.1947571877681825</v>
       </c>
     </row>
     <row r="23">
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1.050366917812435</v>
+        <v>0.1720703260421882</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1.058801553270075</v>
+        <v>0.1684880299534822</v>
       </c>
     </row>
     <row r="25">
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1.123736034802977</v>
+        <v>0.1138739978183084</v>
       </c>
     </row>
     <row r="26">
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1.090064069311651</v>
+        <v>0.1167221320587478</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1.087617476146701</v>
+        <v>0.1908791321505321</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1.015177158774825</v>
+        <v>0.1756049451493527</v>
       </c>
     </row>
     <row r="29">
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1.012408848474535</v>
+        <v>0.1408826462509862</v>
       </c>
     </row>
     <row r="30">
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1.036280217764346</v>
+        <v>0.1056735156963845</v>
       </c>
     </row>
     <row r="31">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1.280874835961478</v>
+        <v>0.1394577176443736</v>
       </c>
     </row>
     <row r="32">
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1.297167299094877</v>
+        <v>0.146021755056528</v>
       </c>
     </row>
     <row r="33">
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1.047606898922537</v>
+        <v>0.1610108556681268</v>
       </c>
     </row>
     <row r="34">
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1.022934426343718</v>
+        <v>0.1313659783371405</v>
       </c>
     </row>
     <row r="35">
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1.263426001732671</v>
+        <v>0.1310536718224442</v>
       </c>
     </row>
     <row r="36">
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1.287985189281498</v>
+        <v>0.1414578956118437</v>
       </c>
     </row>
     <row r="37">
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1.034053914509383</v>
+        <v>0.1642521855876206</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8714788560903238</v>
+        <v>0.1018000278748893</v>
       </c>
     </row>
     <row r="39">
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1.727134010374906</v>
+        <v>0.3855505417088794</v>
       </c>
     </row>
     <row r="40">
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9704045839492368</v>
+        <v>0.06710791433826925</v>
       </c>
     </row>
     <row r="41">
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1.190912786428614</v>
+        <v>0.09922518319551332</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1.032630961197703</v>
+        <v>0.03638265204052434</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1.330812927008852</v>
+        <v>0.1899400232899031</v>
       </c>
     </row>
     <row r="44">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1.273460851552342</v>
+        <v>0.241512585192688</v>
       </c>
     </row>
     <row r="45">
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1.216278529799789</v>
+        <v>0.1210967813728739</v>
       </c>
     </row>
     <row r="46">
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9761662485826801</v>
+        <v>0.01039103118751481</v>
       </c>
     </row>
     <row r="47">
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6397739930694708</v>
+        <v>0.1945236971995297</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1.279545279132981</v>
+        <v>0.2120009731230436</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1.151614165473098</v>
+        <v>0.0872020407538856</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1.265731048203542</v>
+        <v>0.1586450711989451</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1.49628550706463</v>
+        <v>0.3099497448299263</v>
       </c>
     </row>
     <row r="52">
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1.061551081667701</v>
+        <v>0.03608663285864432</v>
       </c>
     </row>
     <row r="53">
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1.028531149882966</v>
+        <v>0.0355181712839056</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1.494689623467787</v>
+        <v>0.354656807225371</v>
       </c>
     </row>
     <row r="55">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9585927569292361</v>
+        <v>0.07715383570980902</v>
       </c>
     </row>
     <row r="56">
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1.329442202386121</v>
+        <v>0.1930218684954744</v>
       </c>
     </row>
     <row r="57">
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1.32088418757179</v>
+        <v>0.2981463413816879</v>
       </c>
     </row>
     <row r="58">
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9041904237450408</v>
+        <v>0.148009138551606</v>
       </c>
     </row>
     <row r="59">
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1.114490852406258</v>
+        <v>0.1166757316228397</v>
       </c>
     </row>
     <row r="60">
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1.089939052528067</v>
+        <v>0.05489537806779079</v>
       </c>
     </row>
     <row r="61">
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1.057576476706288</v>
+        <v>0.03494052893999683</v>
       </c>
     </row>
     <row r="62">
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1.041184832318216</v>
+        <v>0.03748952660685032</v>
       </c>
     </row>
     <row r="63">
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1.231007446287467</v>
+        <v>0.1253850936640155</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1.727134010374906</v>
+        <v>0.3855505417088794</v>
       </c>
     </row>
     <row r="65">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1.297778342880057</v>
+        <v>0.2922812341991746</v>
       </c>
     </row>
     <row r="66">
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1.31770637903995</v>
+        <v>0.2498014295068295</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1.268772813140008</v>
+        <v>0.184602625511559</v>
       </c>
     </row>
     <row r="68">
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0.961551713187258</v>
+        <v>0.01370752486379483</v>
       </c>
     </row>
     <row r="69">
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1.048725824326887</v>
+        <v>0.04218680097931192</v>
       </c>
     </row>
     <row r="70">
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1.271927822855714</v>
+        <v>0.1726878598806929</v>
       </c>
     </row>
     <row r="71">
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6072879993687325</v>
+        <v>0.2344938794296064</v>
       </c>
     </row>
     <row r="72">
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1.415109924071227</v>
+        <v>0.291438348396231</v>
       </c>
     </row>
     <row r="73">
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>1.193184126719084</v>
+        <v>0.1316976601673439</v>
       </c>
     </row>
     <row r="74">
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1.281409532709784</v>
+        <v>0.1750436199700908</v>
       </c>
     </row>
     <row r="75">
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1.233882374525622</v>
+        <v>0.1298279764469276</v>
       </c>
     </row>
     <row r="76">
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1.211134747707297</v>
+        <v>0.1080638644262902</v>
       </c>
     </row>
     <row r="77">
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8547685275954982</v>
+        <v>0.1008915500608672</v>
       </c>
     </row>
     <row r="78">
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1.316433625492284</v>
+        <v>0.2620088474530258</v>
       </c>
     </row>
     <row r="79">
@@ -1544,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6072879993687325</v>
+        <v>0.2344938794296064</v>
       </c>
     </row>
     <row r="80">
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8184234967311714</v>
+        <v>0.09795452764892909</v>
       </c>
     </row>
     <row r="81">
@@ -1572,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1.026030700055147</v>
+        <v>0.02107632656128419</v>
       </c>
     </row>
     <row r="82">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0.853566221237585</v>
+        <v>0.09734883726895882</v>
       </c>
     </row>
     <row r="83">
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1.225821353441882</v>
+        <v>0.1214697700252275</v>
       </c>
     </row>
     <row r="84">
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8959626873089339</v>
+        <v>0.04775752928244135</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9492287929386556</v>
+        <v>0.0203139163994322</v>
       </c>
     </row>
     <row r="86">
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6601443033118286</v>
+        <v>0.2237010259483105</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6230668579372771</v>
+        <v>0.2118537552775932</v>
       </c>
     </row>
     <row r="88">
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6269756010498713</v>
+        <v>0.2206288360988768</v>
       </c>
     </row>
     <row r="89">
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6764938236416739</v>
+        <v>0.1722510062202103</v>
       </c>
     </row>
     <row r="90">
@@ -1698,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6351457773301112</v>
+        <v>0.2350856466548671</v>
       </c>
     </row>
     <row r="91">
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8329781765243194</v>
+        <v>0.08177732094588688</v>
       </c>
     </row>
     <row r="92">
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1.01629610096219</v>
+        <v>0.01638828477844183</v>
       </c>
     </row>
     <row r="93">
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9414078133626016</v>
+        <v>0.07090333419853387</v>
       </c>
     </row>
     <row r="94">
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6955970878102644</v>
+        <v>0.2042188671793916</v>
       </c>
     </row>
     <row r="95">
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>0.640106891127031</v>
+        <v>0.2278706986913426</v>
       </c>
     </row>
     <row r="96">
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8304733983515165</v>
+        <v>0.1753110175918533</v>
       </c>
     </row>
     <row r="97">
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9342200667682801</v>
+        <v>0.07627680924136254</v>
       </c>
     </row>
     <row r="98">
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6942815802414721</v>
+        <v>0.2059873011655795</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6886959247524754</v>
+        <v>0.2160234928131596</v>
       </c>
     </row>
     <row r="100">
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6269756010498713</v>
+        <v>0.2206288360988768</v>
       </c>
     </row>
     <row r="101">
@@ -1852,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1.048019030392465</v>
+        <v>0.04291826464354791</v>
       </c>
     </row>
     <row r="102">
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9388454016246548</v>
+        <v>0.08084640857985328</v>
       </c>
     </row>
     <row r="103">
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8434383117572091</v>
+        <v>0.1075320639369969</v>
       </c>
     </row>
     <row r="104">
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9561585621522783</v>
+        <v>0.06519665446335593</v>
       </c>
     </row>
     <row r="105">
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9243208178135975</v>
+        <v>0.1747480559102821</v>
       </c>
     </row>
     <row r="106">
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6943703521085322</v>
+        <v>0.2125423142531748</v>
       </c>
     </row>
     <row r="107">
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1.215236818870009</v>
+        <v>0.1087037442469987</v>
       </c>
     </row>
     <row r="108">
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8116409880399665</v>
+        <v>0.1149538291590808</v>
       </c>
     </row>
     <row r="109">
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6812447646759459</v>
+        <v>0.197866194899818</v>
       </c>
     </row>
     <row r="110">
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9404596525590219</v>
+        <v>0.1592210502988168</v>
       </c>
     </row>
     <row r="111">
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7735465988206814</v>
+        <v>0.1196579632646493</v>
       </c>
     </row>
     <row r="112">
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7750787766175307</v>
+        <v>0.1872549329713445</v>
       </c>
     </row>
     <row r="113">
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9264007561070553</v>
+        <v>0.1677555417146023</v>
       </c>
     </row>
     <row r="114">
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9710260012422156</v>
+        <v>0.01453800563857691</v>
       </c>
     </row>
     <row r="115">
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>0.83144756295385</v>
+        <v>0.1914820170749749</v>
       </c>
     </row>
     <row r="116">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6645956119586914</v>
+        <v>0.2279018014961929</v>
       </c>
     </row>
     <row r="117">
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1.013807230148859</v>
+        <v>0.07912410566240839</v>
       </c>
     </row>
     <row r="118">
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9418165727523866</v>
+        <v>0.08190350321433475</v>
       </c>
     </row>
     <row r="119">
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8321232518871136</v>
+        <v>0.1740140802475305</v>
       </c>
     </row>
     <row r="120">
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9166187098402688</v>
+        <v>0.1424252154491722</v>
       </c>
     </row>
     <row r="121">
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9292965678835784</v>
+        <v>0.1708429739233124</v>
       </c>
     </row>
     <row r="122">
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1.308215589706034</v>
+        <v>0.2561753223071566</v>
       </c>
     </row>
     <row r="123">
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8903035482778299</v>
+        <v>0.1661717895667818</v>
       </c>
     </row>
     <row r="124">
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9119098031381953</v>
+        <v>0.1486758631353255</v>
       </c>
     </row>
     <row r="125">
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9893178775954969</v>
+        <v>0.1638098138747054</v>
       </c>
     </row>
     <row r="126">
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6113557647544086</v>
+        <v>0.2159258700847818</v>
       </c>
     </row>
     <row r="127">
@@ -2213,10 +2213,10 @@
         <v>113.665172812936</v>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1591928979590209</v>
+        <v>0.2317094960940209</v>
       </c>
     </row>
     <row r="128">
@@ -2227,10 +2227,10 @@
         <v>113.387590060323</v>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.03115778811340618</v>
+        <v>0.1265408460891736</v>
       </c>
     </row>
     <row r="129">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.02634136839874474</v>
+        <v>0.1085939386013388</v>
       </c>
     </row>
     <row r="130">
@@ -2255,10 +2255,10 @@
         <v>113.419959772635</v>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.03725034575440508</v>
+        <v>0.1470633139312698</v>
       </c>
     </row>
     <row r="131">
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.03811986453363526</v>
+        <v>0.1415850034165282</v>
       </c>
     </row>
     <row r="132">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.04896424023366343</v>
+        <v>0.1716269794717163</v>
       </c>
     </row>
     <row r="133">
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>0.04044268483624727</v>
+        <v>0.149663816469709</v>
       </c>
     </row>
     <row r="134">
@@ -2311,10 +2311,10 @@
         <v>113.597485671544</v>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1084972547335437</v>
+        <v>0.3003002060334513</v>
       </c>
     </row>
     <row r="135">
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.05035435543240679</v>
+        <v>0.1739748269679064</v>
       </c>
     </row>
     <row r="136">
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0.03757889482507214</v>
+        <v>0.1412524344417926</v>
       </c>
     </row>
     <row r="137">
@@ -2353,10 +2353,10 @@
         <v>113.406846999602</v>
       </c>
       <c r="C137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>0.02602464920212605</v>
+        <v>0.1181592269872746</v>
       </c>
     </row>
     <row r="138">
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0.04169276879851644</v>
+        <v>0.150746256861508</v>
       </c>
     </row>
     <row r="139">
@@ -2381,10 +2381,10 @@
         <v>113.374908952731</v>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0.01976573336846104</v>
+        <v>0.09253019848705893</v>
       </c>
     </row>
     <row r="140">
@@ -2395,10 +2395,10 @@
         <v>113.548436650122</v>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1103551821768397</v>
+        <v>0.2622079592774939</v>
       </c>
     </row>
     <row r="141">
@@ -2409,10 +2409,10 @@
         <v>113.561445341886</v>
       </c>
       <c r="C141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1075662663807151</v>
+        <v>0.2652102007871746</v>
       </c>
     </row>
     <row r="142">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0.08209476849101408</v>
+        <v>0.2415456118488525</v>
       </c>
     </row>
     <row r="143">
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>0.04944974303306963</v>
+        <v>0.171699489300786</v>
       </c>
     </row>
     <row r="144">
@@ -2451,10 +2451,10 @@
         <v>113.337954403182</v>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>0.02378733778527753</v>
+        <v>0.1005601686258579</v>
       </c>
     </row>
     <row r="145">
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0.04153496825254295</v>
+        <v>0.152275976637338</v>
       </c>
     </row>
     <row r="146">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>0.03330592692830704</v>
+        <v>0.1287821414855246</v>
       </c>
     </row>
     <row r="147">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0556895749438197</v>
+        <v>0.1858235712850138</v>
       </c>
     </row>
     <row r="148">
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>0.02597829013199853</v>
+        <v>0.1076082154943984</v>
       </c>
     </row>
     <row r="149">
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0.06756141806325124</v>
+        <v>0.2119553589519255</v>
       </c>
     </row>
     <row r="150">
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0.06758799706669266</v>
+        <v>0.2120064041674139</v>
       </c>
     </row>
     <row r="151">
@@ -2549,10 +2549,10 @@
         <v>113.449201701942</v>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0.03943709140424429</v>
+        <v>0.1593207675753378</v>
       </c>
     </row>
     <row r="152">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0.08209476849101408</v>
+        <v>0.2415456118488525</v>
       </c>
     </row>
     <row r="153">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0.08276928454705007</v>
+        <v>0.2414365078153358</v>
       </c>
     </row>
     <row r="154">
@@ -2591,10 +2591,10 @@
         <v>113.429744979892</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D154" t="n">
-        <v>0.07383899362859501</v>
+        <v>0.2499781803276338</v>
       </c>
     </row>
     <row r="155">
@@ -2605,10 +2605,10 @@
         <v>113.544217136668</v>
       </c>
       <c r="C155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1012932896771737</v>
+        <v>0.2778871564801963</v>
       </c>
     </row>
     <row r="156">
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0.08209476849101408</v>
+        <v>0.2415456118488525</v>
       </c>
     </row>
     <row r="157">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0830841125418651</v>
+        <v>0.2422479840615295</v>
       </c>
     </row>
     <row r="158">
@@ -2647,10 +2647,10 @@
         <v>113.515291376765</v>
       </c>
       <c r="C158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>0.07653511061293466</v>
+        <v>0.2374797871116295</v>
       </c>
     </row>
     <row r="159">
@@ -2661,10 +2661,10 @@
         <v>113.289293329367</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>0.07160815625675203</v>
+        <v>0.1074342681508487</v>
       </c>
     </row>
     <row r="160">
@@ -2675,10 +2675,10 @@
         <v>113.278240859545</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D160" t="n">
-        <v>0.04203835518338223</v>
+        <v>0.1389285578980558</v>
       </c>
     </row>
     <row r="161">
@@ -2689,10 +2689,10 @@
         <v>113.416799529649</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1600455358588408</v>
+        <v>0.2345821758510621</v>
       </c>
     </row>
     <row r="162">
@@ -2703,10 +2703,10 @@
         <v>113.347511423398</v>
       </c>
       <c r="C162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009425641131656932</v>
+        <v>0.1395588184751285</v>
       </c>
     </row>
     <row r="163">
@@ -2717,10 +2717,10 @@
         <v>113.531677147482</v>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1064539504882647</v>
+        <v>0.2716456854980416</v>
       </c>
     </row>
     <row r="164">
@@ -2731,10 +2731,10 @@
         <v>113.300569151175</v>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0.01000952169489334</v>
+        <v>0.04809389053612445</v>
       </c>
     </row>
     <row r="165">
@@ -2745,10 +2745,10 @@
         <v>113.442775215343</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1476518334742194</v>
+        <v>0.2539815676762029</v>
       </c>
     </row>
     <row r="166">
@@ -2759,10 +2759,10 @@
         <v>113.256333074606</v>
       </c>
       <c r="C166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>0.01201260028455241</v>
+        <v>0.07170405417885256</v>
       </c>
     </row>
     <row r="167">
@@ -2773,10 +2773,10 @@
         <v>113.331306286413</v>
       </c>
       <c r="C167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>0.001790109401436674</v>
+        <v>0.03941487122718748</v>
       </c>
     </row>
     <row r="168">
@@ -2787,10 +2787,10 @@
         <v>113.204265310992</v>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>0.01425066708815039</v>
+        <v>0.106189564633471</v>
       </c>
     </row>
     <row r="169">
@@ -2801,10 +2801,10 @@
         <v>113.360399252647</v>
       </c>
       <c r="C169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>0.007504618156510154</v>
+        <v>0.1208713443421364</v>
       </c>
     </row>
     <row r="170">
@@ -2815,10 +2815,10 @@
         <v>113.410598974178</v>
       </c>
       <c r="C170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0.01846703933988412</v>
+        <v>0.1606440980141725</v>
       </c>
     </row>
     <row r="171">
@@ -2829,10 +2829,10 @@
         <v>113.319993212109</v>
       </c>
       <c r="C171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0.003979399148923841</v>
+        <v>0.01386066163905019</v>
       </c>
     </row>
     <row r="172">
@@ -2843,10 +2843,10 @@
         <v>113.204206100083</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D172" t="n">
-        <v>0.06350054616954666</v>
+        <v>0.07910952026126328</v>
       </c>
     </row>
     <row r="173">
@@ -2857,10 +2857,10 @@
         <v>113.256333074606</v>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0.01201260028455241</v>
+        <v>0.07170405417885256</v>
       </c>
     </row>
     <row r="174">
@@ -2871,10 +2871,10 @@
         <v>113.264093640781</v>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0.004924649008624632</v>
+        <v>0.04454481706650814</v>
       </c>
     </row>
     <row r="175">
@@ -2885,10 +2885,10 @@
         <v>113.273631743806</v>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>0.003334254877336172</v>
+        <v>0.0336725865240878</v>
       </c>
     </row>
     <row r="176">
@@ -2899,10 +2899,10 @@
         <v>113.248217962292</v>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0.01629848233391792</v>
+        <v>0.08908797644842337</v>
       </c>
     </row>
     <row r="177">
@@ -2913,10 +2913,10 @@
         <v>113.223460705564</v>
       </c>
       <c r="C177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>0.01174234068529498</v>
+        <v>0.08885254535246136</v>
       </c>
     </row>
     <row r="178">
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8218772635106966</v>
+        <v>0.1865788614695788</v>
       </c>
     </row>
     <row r="179">
@@ -2941,10 +2941,10 @@
         <v>113.583522613719</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4029145532603235</v>
+        <v>0.2813956919765628</v>
       </c>
     </row>
     <row r="180">
@@ -2955,10 +2955,10 @@
         <v>113.218596106348</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04680542266199159</v>
+        <v>0.1139636339758956</v>
       </c>
     </row>
     <row r="181">
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>0.03412280331430699</v>
+        <v>0.1352410414926871</v>
       </c>
     </row>
     <row r="182">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>0.03068537420222445</v>
+        <v>0.124248013181771</v>
       </c>
     </row>
     <row r="183">
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>0.05120543777317864</v>
+        <v>0.1770418408450272</v>
       </c>
     </row>
     <row r="184">
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0.03757889482507214</v>
+        <v>0.1412524344417926</v>
       </c>
     </row>
     <row r="185">
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0.03254759814933988</v>
+        <v>0.1279843815706966</v>
       </c>
     </row>
     <row r="186">
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0.02936491500838198</v>
+        <v>0.1198802475336332</v>
       </c>
     </row>
     <row r="187">
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0.03275788516542996</v>
+        <v>0.1281984374312538</v>
       </c>
     </row>
     <row r="188">
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0.03784571590212991</v>
+        <v>0.1408787358723319</v>
       </c>
     </row>
     <row r="189">
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>0.03552732382314343</v>
+        <v>0.1348809207721657</v>
       </c>
     </row>
     <row r="190">
@@ -3095,10 +3095,10 @@
         <v>113.463408611086</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2083815153144972</v>
+        <v>0.2929859120397952</v>
       </c>
     </row>
     <row r="191">
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0355632426504028</v>
+        <v>0.1348211068574428</v>
       </c>
     </row>
     <row r="192">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>0.04093567310724884</v>
+        <v>0.151010127923909</v>
       </c>
     </row>
     <row r="193">
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>0.03340819522078635</v>
+        <v>0.1290323629913248</v>
       </c>
     </row>
     <row r="194">
@@ -3151,10 +3151,10 @@
         <v>113.347128721895</v>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>0.01618654599644605</v>
+        <v>0.07507931160000786</v>
       </c>
     </row>
     <row r="195">
@@ -3165,10 +3165,10 @@
         <v>113.418328010558</v>
       </c>
       <c r="C195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>0.03863159224826505</v>
+        <v>0.1497546011589569</v>
       </c>
     </row>
     <row r="196">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>0.02526353878610512</v>
+        <v>0.1052129201977091</v>
       </c>
     </row>
     <row r="197">
@@ -3193,10 +3193,10 @@
         <v>113.359043890192</v>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>0.02403640415050042</v>
+        <v>0.1027542371042394</v>
       </c>
     </row>
     <row r="198">
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0.03715673920999343</v>
+        <v>0.1402416668371889</v>
       </c>
     </row>
     <row r="199">
@@ -3221,10 +3221,10 @@
         <v>113.512806615216</v>
       </c>
       <c r="C199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D199" t="n">
-        <v>0.2840719953508395</v>
+        <v>0.2890162389401906</v>
       </c>
     </row>
     <row r="200">
@@ -3235,10 +3235,10 @@
         <v>113.563484892444</v>
       </c>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D200" t="n">
-        <v>0.3655177688306354</v>
+        <v>0.2786320989700438</v>
       </c>
     </row>
     <row r="201">
@@ -3249,10 +3249,10 @@
         <v>113.567051785148</v>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D201" t="n">
-        <v>0.381769207057871</v>
+        <v>0.2850142046729497</v>
       </c>
     </row>
     <row r="202">
@@ -3263,10 +3263,10 @@
         <v>113.259724537227</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D202" t="n">
-        <v>0.06211948122313724</v>
+        <v>0.09490102933800322</v>
       </c>
     </row>
     <row r="203">
@@ -3277,10 +3277,10 @@
         <v>113.214808316726</v>
       </c>
       <c r="C203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>0.01057780424014864</v>
+        <v>0.1492492745447918</v>
       </c>
     </row>
     <row r="204">
@@ -3291,10 +3291,10 @@
         <v>113.259826043953</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D204" t="n">
-        <v>0.06231505665706556</v>
+        <v>0.09468601773425063</v>
       </c>
     </row>
     <row r="205">
@@ -3305,10 +3305,10 @@
         <v>113.553841124661</v>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D205" t="n">
-        <v>0.3261994855064573</v>
+        <v>0.2656810017944809</v>
       </c>
     </row>
     <row r="206">
@@ -3319,10 +3319,10 @@
         <v>113.554093517069</v>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D206" t="n">
-        <v>0.3248405824490574</v>
+        <v>0.2646255712694268</v>
       </c>
     </row>
     <row r="207">
@@ -3333,10 +3333,10 @@
         <v>113.552166166666</v>
       </c>
       <c r="C207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D207" t="n">
-        <v>0.3243886340660427</v>
+        <v>0.2665091940365305</v>
       </c>
     </row>
     <row r="208">
@@ -3347,10 +3347,10 @@
         <v>113.582300593937</v>
       </c>
       <c r="C208" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D208" t="n">
-        <v>0.400839195074644</v>
+        <v>0.2813018547998961</v>
       </c>
     </row>
     <row r="209">
@@ -3361,10 +3361,10 @@
         <v>113.493320018744</v>
       </c>
       <c r="C209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D209" t="n">
-        <v>0.3739240600333438</v>
+        <v>0.3559012126999438</v>
       </c>
     </row>
     <row r="210">
@@ -3375,10 +3375,10 @@
         <v>113.583011167968</v>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D210" t="n">
-        <v>0.4013191629028158</v>
+        <v>0.2808748431253994</v>
       </c>
     </row>
     <row r="211">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>0.08209476849101408</v>
+        <v>0.2415456118488525</v>
       </c>
     </row>
     <row r="212">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>0.03419076617760822</v>
+        <v>0.1445011776149047</v>
       </c>
     </row>
     <row r="213">
@@ -3417,10 +3417,10 @@
         <v>113.18650320598</v>
       </c>
       <c r="C213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>0.03039270962026649</v>
+        <v>0.2243176999373213</v>
       </c>
     </row>
     <row r="214">
@@ -3431,10 +3431,10 @@
         <v>113.28750899998</v>
       </c>
       <c r="C214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0005887439340951572</v>
+        <v>0.07799814069287361</v>
       </c>
     </row>
     <row r="215">
@@ -3445,10 +3445,10 @@
         <v>113.159491967779</v>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>0.04099295306013905</v>
+        <v>0.2511353036172645</v>
       </c>
     </row>
     <row r="216">
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>0.03477589622459209</v>
+        <v>0.1459395883958351</v>
       </c>
     </row>
     <row r="217">
@@ -3473,10 +3473,10 @@
         <v>113.178884764987</v>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>0.01689652182700151</v>
+        <v>0.170041063073414</v>
       </c>
     </row>
     <row r="218">
@@ -3487,10 +3487,10 @@
         <v>113.162317292602</v>
       </c>
       <c r="C218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>0.04160425319918463</v>
+        <v>0.2531305338648684</v>
       </c>
     </row>
     <row r="219">
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>0.03376311163313734</v>
+        <v>0.1381986426297571</v>
       </c>
     </row>
     <row r="220">
@@ -3515,10 +3515,10 @@
         <v>113.281831122566</v>
       </c>
       <c r="C220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>0.02010301919025662</v>
+        <v>0.1951190052904244</v>
       </c>
     </row>
     <row r="221">
@@ -3529,10 +3529,10 @@
         <v>113.216877071196</v>
       </c>
       <c r="C221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>0.01201974829573622</v>
+        <v>0.1579972531962043</v>
       </c>
     </row>
     <row r="222">
@@ -3543,10 +3543,10 @@
         <v>113.190665542288</v>
       </c>
       <c r="C222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0.03152332564597853</v>
+        <v>0.2282380036600128</v>
       </c>
     </row>
     <row r="223">
@@ -3557,10 +3557,10 @@
         <v>113.552891213297</v>
       </c>
       <c r="C223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D223" t="n">
-        <v>0.4331018183814909</v>
+        <v>0.3317544821501688</v>
       </c>
     </row>
     <row r="224">
@@ -3571,10 +3571,10 @@
         <v>113.156847690528</v>
       </c>
       <c r="C224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>0.04188499492293336</v>
+        <v>0.2531542614948529</v>
       </c>
     </row>
     <row r="225">
@@ -3585,10 +3585,10 @@
         <v>113.221447149273</v>
       </c>
       <c r="C225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>0.01163995207293768</v>
+        <v>0.1570790023811945</v>
       </c>
     </row>
     <row r="226">
@@ -3599,10 +3599,10 @@
         <v>113.111064901651</v>
       </c>
       <c r="C226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>0.03422306875387105</v>
+        <v>0.2102616724307619</v>
       </c>
     </row>
     <row r="227">
@@ -3613,10 +3613,10 @@
         <v>113.228661761516</v>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>0.02943880763450491</v>
+        <v>0.2248409417343336</v>
       </c>
     </row>
     <row r="228">
@@ -3627,10 +3627,10 @@
         <v>113.255981176897</v>
       </c>
       <c r="C228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>0.01145816824950978</v>
+        <v>0.1604992106446499</v>
       </c>
     </row>
     <row r="229">
@@ -3641,10 +3641,10 @@
         <v>113.214823185478</v>
       </c>
       <c r="C229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>0.01287047706155154</v>
+        <v>0.161909385705865</v>
       </c>
     </row>
     <row r="230">
@@ -3655,10 +3655,10 @@
         <v>113.218564358435</v>
       </c>
       <c r="C230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>0.01378370084832813</v>
+        <v>0.1671872894940792</v>
       </c>
     </row>
     <row r="231">
@@ -3669,10 +3669,10 @@
         <v>113.288290696452</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D231" t="n">
-        <v>0.05759104040463563</v>
+        <v>0.1210322927855907</v>
       </c>
     </row>
     <row r="232">
@@ -3683,10 +3683,10 @@
         <v>113.207607097319</v>
       </c>
       <c r="C232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>0.01080339536768129</v>
+        <v>0.1478084111415047</v>
       </c>
     </row>
     <row r="233">
@@ -3697,10 +3697,10 @@
         <v>113.208056767498</v>
       </c>
       <c r="C233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>0.01965458623047312</v>
+        <v>0.1904372740598604</v>
       </c>
     </row>
     <row r="234">
@@ -3711,10 +3711,10 @@
         <v>113.25153069652</v>
       </c>
       <c r="C234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>0.008723940164317394</v>
+        <v>0.1461762025533312</v>
       </c>
     </row>
     <row r="235">
@@ -3725,10 +3725,10 @@
         <v>113.209449233563</v>
       </c>
       <c r="C235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>0.01273410530070239</v>
+        <v>0.1597632447854067</v>
       </c>
     </row>
     <row r="236">
@@ -3739,10 +3739,10 @@
         <v>113.209090840207</v>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>0.01510194735109927</v>
+        <v>0.1714227168302783</v>
       </c>
     </row>
     <row r="237">
@@ -3753,10 +3753,10 @@
         <v>113.209232887461</v>
       </c>
       <c r="C237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>0.01361507961889618</v>
+        <v>0.164270509356937</v>
       </c>
     </row>
     <row r="238">
@@ -3767,10 +3767,10 @@
         <v>113.239735000161</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D238" t="n">
-        <v>0.05079095631111336</v>
+        <v>0.1060943379444251</v>
       </c>
     </row>
     <row r="239">
@@ -3781,10 +3781,10 @@
         <v>113.212755376026</v>
       </c>
       <c r="C239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>0.01532414437176802</v>
+        <v>0.1731955697862595</v>
       </c>
     </row>
     <row r="240">
@@ -3795,10 +3795,10 @@
         <v>113.337875769111</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D240" t="n">
-        <v>0.05189370519446293</v>
+        <v>0.1711595896401904</v>
       </c>
     </row>
     <row r="241">
@@ -3809,10 +3809,10 @@
         <v>113.221447149273</v>
       </c>
       <c r="C241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0.01163995207293768</v>
+        <v>0.1570790023811945</v>
       </c>
     </row>
     <row r="242">
@@ -3823,10 +3823,10 @@
         <v>113.340585953241</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D242" t="n">
-        <v>0.05057926892936866</v>
+        <v>0.1753134764091349</v>
       </c>
     </row>
     <row r="243">
@@ -3837,10 +3837,10 @@
         <v>113.169637572138</v>
       </c>
       <c r="C243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>0.02388606812741252</v>
+        <v>0.1986250707040135</v>
       </c>
     </row>
     <row r="244">
@@ -3851,10 +3851,10 @@
         <v>113.272654115225</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0468327006269439</v>
+        <v>0.1269226749839297</v>
       </c>
     </row>
     <row r="245">
@@ -3865,10 +3865,10 @@
         <v>113.268162269676</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D245" t="n">
-        <v>0.04128694957117984</v>
+        <v>0.1353181927338669</v>
       </c>
     </row>
     <row r="246">
@@ -3879,10 +3879,10 @@
         <v>113.205743562539</v>
       </c>
       <c r="C246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>0.02010640108351745</v>
+        <v>0.1918299123960622</v>
       </c>
     </row>
     <row r="247">
@@ -3893,10 +3893,10 @@
         <v>113.361995204673</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D247" t="n">
-        <v>0.05475546525413631</v>
+        <v>0.191913316206037</v>
       </c>
     </row>
     <row r="248">
@@ -3907,10 +3907,10 @@
         <v>113.323263141182</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D248" t="n">
-        <v>0.05987871218022711</v>
+        <v>0.1488238315289356</v>
       </c>
     </row>
     <row r="249">
@@ -3921,10 +3921,10 @@
         <v>113.314500058647</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D249" t="n">
-        <v>0.04738783220055494</v>
+        <v>0.1559181576641422</v>
       </c>
     </row>
     <row r="250">
@@ -3935,10 +3935,10 @@
         <v>113.361821053777</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D250" t="n">
-        <v>0.05437786132103981</v>
+        <v>0.1921292919207611</v>
       </c>
     </row>
     <row r="251">
@@ -3949,10 +3949,10 @@
         <v>113.309217218266</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D251" t="n">
-        <v>0.05006085269275929</v>
+        <v>0.1477614232804764</v>
       </c>
     </row>
     <row r="252">
@@ -3963,10 +3963,10 @@
         <v>113.356352889423</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D252" t="n">
-        <v>0.06016651476087976</v>
+        <v>0.180957261622589</v>
       </c>
     </row>
     <row r="253">
@@ -3977,10 +3977,10 @@
         <v>113.357390647834</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0632112250363261</v>
+        <v>0.1794496721243309</v>
       </c>
     </row>
     <row r="254">
@@ -3991,10 +3991,10 @@
         <v>113.332467287231</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D254" t="n">
-        <v>0.05372013831649752</v>
+        <v>0.1639339561040055</v>
       </c>
     </row>
     <row r="255">
@@ -4005,10 +4005,10 @@
         <v>113.279266420157</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D255" t="n">
-        <v>0.04953186922948129</v>
+        <v>0.126259631079315</v>
       </c>
     </row>
     <row r="256">
@@ -4019,10 +4019,10 @@
         <v>113.328379781568</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D256" t="n">
-        <v>0.05250924782310179</v>
+        <v>0.1615230437329795</v>
       </c>
     </row>
     <row r="257">
@@ -4033,10 +4033,10 @@
         <v>113.343204462598</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D257" t="n">
-        <v>0.05462802058841897</v>
+        <v>0.1732362051206901</v>
       </c>
     </row>
     <row r="258">
@@ -4047,10 +4047,10 @@
         <v>113.333841266126</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D258" t="n">
-        <v>0.05347617518629441</v>
+        <v>0.1655063703019735</v>
       </c>
     </row>
     <row r="259">
@@ -4061,10 +4061,10 @@
         <v>113.322619933776</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D259" t="n">
-        <v>0.0616342166143892</v>
+        <v>0.1465551570869041</v>
       </c>
     </row>
     <row r="260">
@@ -4075,10 +4075,10 @@
         <v>113.399594747459</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D260" t="n">
-        <v>0.1019210636655918</v>
+        <v>0.2077940763779173</v>
       </c>
     </row>
     <row r="261">
@@ -4089,10 +4089,10 @@
         <v>113.339986287601</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D261" t="n">
-        <v>0.05608932260940098</v>
+        <v>0.1685663611505601</v>
       </c>
     </row>
     <row r="262">
@@ -4103,10 +4103,10 @@
         <v>113.289293329367</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D262" t="n">
-        <v>0.07160815625675203</v>
+        <v>0.1074342681508487</v>
       </c>
     </row>
     <row r="263">
@@ -4117,10 +4117,10 @@
         <v>113.333797010249</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D263" t="n">
-        <v>0.05135859453777599</v>
+        <v>0.1679386762750903</v>
       </c>
     </row>
     <row r="264">
@@ -4131,10 +4131,10 @@
         <v>113.364357668065</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D264" t="n">
-        <v>0.1451044977753513</v>
+        <v>0.1827206237461978</v>
       </c>
     </row>
     <row r="265">
@@ -4145,10 +4145,10 @@
         <v>113.321480990538</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D265" t="n">
-        <v>0.04888191725940891</v>
+        <v>0.1598671939888895</v>
       </c>
     </row>
     <row r="266">
@@ -4159,10 +4159,10 @@
         <v>113.325271269013</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D266" t="n">
-        <v>0.08875080775745516</v>
+        <v>0.1342201665545459</v>
       </c>
     </row>
     <row r="267">
@@ -4173,10 +4173,10 @@
         <v>113.419107833613</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D267" t="n">
-        <v>0.2664367894639847</v>
+        <v>0.2944053887362347</v>
       </c>
     </row>
     <row r="268">
@@ -4187,10 +4187,10 @@
         <v>113.418650592067</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D268" t="n">
-        <v>0.1372820914049973</v>
+        <v>0.2293050311567026</v>
       </c>
     </row>
     <row r="269">
@@ -4201,10 +4201,10 @@
         <v>113.416799529649</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D269" t="n">
-        <v>0.1600455358588408</v>
+        <v>0.2345821758510621</v>
       </c>
     </row>
     <row r="270">
@@ -4215,10 +4215,10 @@
         <v>113.405244729793</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D270" t="n">
-        <v>0.1175214254471294</v>
+        <v>0.213387442242256</v>
       </c>
     </row>
     <row r="271">
@@ -4229,10 +4229,10 @@
         <v>113.442038240113</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D271" t="n">
-        <v>0.1468716658012169</v>
+        <v>0.2531266723352086</v>
       </c>
     </row>
     <row r="272">
@@ -4243,10 +4243,10 @@
         <v>113.461447492481</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D272" t="n">
-        <v>0.2089743298042119</v>
+        <v>0.2917341423941218</v>
       </c>
     </row>
     <row r="273">
@@ -4257,10 +4257,10 @@
         <v>113.357449441031</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D273" t="n">
-        <v>0.09028333757205795</v>
+        <v>0.1664631615256504</v>
       </c>
     </row>
     <row r="274">
@@ -4271,10 +4271,10 @@
         <v>113.414159872993</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D274" t="n">
-        <v>0.2697848513961963</v>
+        <v>0.2935493830863118</v>
       </c>
     </row>
     <row r="275">
@@ -4285,10 +4285,10 @@
         <v>113.320175523213</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D275" t="n">
-        <v>0.0955744803372291</v>
+        <v>0.1281427887532588</v>
       </c>
     </row>
     <row r="276">
@@ -4299,10 +4299,10 @@
         <v>113.371203549402</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D276" t="n">
-        <v>0.1454271120396935</v>
+        <v>0.1888954040627173</v>
       </c>
     </row>
     <row r="277">
@@ -4313,10 +4313,10 @@
         <v>113.404493207404</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D277" t="n">
-        <v>0.1498982845334063</v>
+        <v>0.2200817605746217</v>
       </c>
     </row>
     <row r="278">
@@ -4327,10 +4327,10 @@
         <v>113.35658051101</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D278" t="n">
-        <v>0.1268357911624928</v>
+        <v>0.1686117438452901</v>
       </c>
     </row>
     <row r="279">
@@ -4341,10 +4341,10 @@
         <v>113.416799529649</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D279" t="n">
-        <v>0.1600455358588408</v>
+        <v>0.2345821758510621</v>
       </c>
     </row>
     <row r="280">
@@ -4355,10 +4355,10 @@
         <v>113.322274897324</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D280" t="n">
-        <v>0.1131062358375585</v>
+        <v>0.1319376254816186</v>
       </c>
     </row>
     <row r="281">
@@ -4369,10 +4369,10 @@
         <v>113.423847297525</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D281" t="n">
-        <v>0.1452094799020514</v>
+        <v>0.2360435412050689</v>
       </c>
     </row>
     <row r="282">
@@ -4383,10 +4383,10 @@
         <v>113.408129594819</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D282" t="n">
-        <v>0.1332515857391592</v>
+        <v>0.2185706159590652</v>
       </c>
     </row>
     <row r="283">
@@ -4397,10 +4397,10 @@
         <v>113.345148218755</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D283" t="n">
-        <v>0.1328609864798629</v>
+        <v>0.1602267576798693</v>
       </c>
     </row>
     <row r="284">
@@ -4411,10 +4411,10 @@
         <v>113.37549023365</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D284" t="n">
-        <v>0.1608931495309296</v>
+        <v>0.1998230285945652</v>
       </c>
     </row>
     <row r="285">
@@ -4425,10 +4425,10 @@
         <v>113.36044210182</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D285" t="n">
-        <v>0.1436455265616488</v>
+        <v>0.1786155311576092</v>
       </c>
     </row>
     <row r="286">
@@ -4439,10 +4439,10 @@
         <v>113.365905849252</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D286" t="n">
-        <v>0.1363538631979285</v>
+        <v>0.1805101217252941</v>
       </c>
     </row>
     <row r="287">
@@ -4453,10 +4453,10 @@
         <v>113.368049181045</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D287" t="n">
-        <v>0.1358368619988903</v>
+        <v>0.1822713397003593</v>
       </c>
     </row>
     <row r="288">
@@ -4467,10 +4467,10 @@
         <v>113.404437697513</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D288" t="n">
-        <v>0.1330054072783772</v>
+        <v>0.2150545662914539</v>
       </c>
     </row>
     <row r="289">
@@ -4481,10 +4481,10 @@
         <v>113.35841800032</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D289" t="n">
-        <v>0.1346940270319385</v>
+        <v>0.1730636811519201</v>
       </c>
     </row>
     <row r="290">
@@ -4495,10 +4495,10 @@
         <v>113.360734032246</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D290" t="n">
-        <v>0.1453834623272883</v>
+        <v>0.1796623830879112</v>
       </c>
     </row>
     <row r="291">
@@ -4509,10 +4509,10 @@
         <v>113.269913812089</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D291" t="n">
-        <v>0.06900450902928458</v>
+        <v>0.09349110141440801</v>
       </c>
     </row>
     <row r="292">
@@ -4523,10 +4523,10 @@
         <v>113.360686171427</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D292" t="n">
-        <v>0.1432226625336819</v>
+        <v>0.1786423557227841</v>
       </c>
     </row>
     <row r="293">
@@ -4537,10 +4537,10 @@
         <v>113.598866296147</v>
       </c>
       <c r="C293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D293" t="n">
-        <v>0.15007469136526</v>
+        <v>0.4126683074228681</v>
       </c>
     </row>
     <row r="294">
@@ -4551,10 +4551,10 @@
         <v>113.403309240742</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D294" t="n">
-        <v>0.1487512967040759</v>
+        <v>0.2186262387564349</v>
       </c>
     </row>
     <row r="295">
@@ -4565,10 +4565,10 @@
         <v>113.382774251672</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D295" t="n">
-        <v>0.1275027758124967</v>
+        <v>0.1933979235307229</v>
       </c>
     </row>
     <row r="296">
@@ -4579,10 +4579,10 @@
         <v>113.580384782268</v>
       </c>
       <c r="C296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D296" t="n">
-        <v>0.1431338375240675</v>
+        <v>0.4057989644099584</v>
       </c>
     </row>
     <row r="297">
@@ -4593,10 +4593,10 @@
         <v>113.431395570977</v>
       </c>
       <c r="C297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D297" t="n">
-        <v>0.1147906399764042</v>
+        <v>0.382877547714694</v>
       </c>
     </row>
     <row r="298">
@@ -4607,10 +4607,10 @@
         <v>113.601878162707</v>
       </c>
       <c r="C298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D298" t="n">
-        <v>0.1543913305087843</v>
+        <v>0.4184123304852026</v>
       </c>
     </row>
     <row r="299">
@@ -4621,10 +4621,10 @@
         <v>113.592683288069</v>
       </c>
       <c r="C299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D299" t="n">
-        <v>0.1412326468943731</v>
+        <v>0.4005857115127329</v>
       </c>
     </row>
     <row r="300">
@@ -4635,10 +4635,10 @@
         <v>113.592693395803</v>
       </c>
       <c r="C300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D300" t="n">
-        <v>0.1413348666495858</v>
+        <v>0.4007403474480621</v>
       </c>
     </row>
     <row r="301">
@@ -4649,10 +4649,10 @@
         <v>113.596300622424</v>
       </c>
       <c r="C301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D301" t="n">
-        <v>0.1463896803224526</v>
+        <v>0.407684534255556</v>
       </c>
     </row>
     <row r="302">
@@ -4663,10 +4663,10 @@
         <v>113.592775572791</v>
       </c>
       <c r="C302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D302" t="n">
-        <v>0.1437419248559128</v>
+        <v>0.4043880930029521</v>
       </c>
     </row>
     <row r="303">
@@ -4677,10 +4677,10 @@
         <v>113.264376444648</v>
       </c>
       <c r="C303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>0.007957338359469908</v>
+        <v>0.0533296431233705</v>
       </c>
     </row>
     <row r="304">
@@ -4691,10 +4691,10 @@
         <v>113.59466398704</v>
       </c>
       <c r="C304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D304" t="n">
-        <v>0.1481420227080191</v>
+        <v>0.4106105618785122</v>
       </c>
     </row>
     <row r="305">
@@ -4705,10 +4705,10 @@
         <v>113.602250999917</v>
       </c>
       <c r="C305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D305" t="n">
-        <v>0.1500688117432972</v>
+        <v>0.4120031403215966</v>
       </c>
     </row>
     <row r="306">
@@ -4719,10 +4719,10 @@
         <v>113.284509235392</v>
       </c>
       <c r="C306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D306" t="n">
-        <v>0.01863390443725137</v>
+        <v>0.1897469534628868</v>
       </c>
     </row>
     <row r="307">
@@ -4733,10 +4733,10 @@
         <v>113.283053118991</v>
       </c>
       <c r="C307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D307" t="n">
-        <v>0.01040353496832678</v>
+        <v>0.05474744196981312</v>
       </c>
     </row>
     <row r="308">
@@ -4747,10 +4747,10 @@
         <v>113.30125296199</v>
       </c>
       <c r="C308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D308" t="n">
-        <v>0.0008174945750002441</v>
+        <v>0.08027106088091562</v>
       </c>
     </row>
     <row r="309">
@@ -4761,10 +4761,10 @@
         <v>113.589514390519</v>
       </c>
       <c r="C309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D309" t="n">
-        <v>0.1459795156717346</v>
+        <v>0.4083673281261045</v>
       </c>
     </row>
     <row r="310">
@@ -4775,10 +4775,10 @@
         <v>113.311197191406</v>
       </c>
       <c r="C310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D310" t="n">
-        <v>0.005823603526388514</v>
+        <v>0.02258275976905564</v>
       </c>
     </row>
     <row r="311">
@@ -4789,10 +4789,10 @@
         <v>113.282908079482</v>
       </c>
       <c r="C311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>0.02053830498217278</v>
+        <v>0.09381066887337033</v>
       </c>
     </row>
     <row r="312">
@@ -4803,10 +4803,10 @@
         <v>113.25790735052</v>
       </c>
       <c r="C312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>0.01993723133547715</v>
+        <v>0.09752467990050874</v>
       </c>
     </row>
     <row r="313">
@@ -4817,10 +4817,10 @@
         <v>113.274368000391</v>
       </c>
       <c r="C313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>0.007884234330861287</v>
+        <v>0.04746943967016668</v>
       </c>
     </row>
     <row r="314">
@@ -4831,10 +4831,10 @@
         <v>113.259458632508</v>
       </c>
       <c r="C314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D314" t="n">
-        <v>0.01477664218640399</v>
+        <v>0.07999136306279542</v>
       </c>
     </row>
     <row r="315">
@@ -4845,10 +4845,10 @@
         <v>113.284813628909</v>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D315" t="n">
-        <v>0.01045192698855513</v>
+        <v>0.05437666528902151</v>
       </c>
     </row>
     <row r="316">
@@ -4859,10 +4859,10 @@
         <v>113.3157819451</v>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D316" t="n">
-        <v>0.004239218613770332</v>
+        <v>0.0126215719469115</v>
       </c>
     </row>
     <row r="317">
@@ -4873,10 +4873,10 @@
         <v>113.250263998616</v>
       </c>
       <c r="C317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D317" t="n">
-        <v>0.01230048971906784</v>
+        <v>0.07544771703481641</v>
       </c>
     </row>
     <row r="318">
@@ -4887,10 +4887,10 @@
         <v>113.286259611525</v>
       </c>
       <c r="C318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>0.00978319408630835</v>
+        <v>0.05085815905689127</v>
       </c>
     </row>
     <row r="319">
@@ -4901,10 +4901,10 @@
         <v>113.331306286413</v>
       </c>
       <c r="C319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D319" t="n">
-        <v>0.001790109401436674</v>
+        <v>0.03941487122718748</v>
       </c>
     </row>
     <row r="320">
@@ -4915,10 +4915,10 @@
         <v>113.277071510111</v>
       </c>
       <c r="C320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D320" t="n">
-        <v>0.005728445340834351</v>
+        <v>0.03700502437248152</v>
       </c>
     </row>
     <row r="321">
@@ -4929,10 +4929,10 @@
         <v>113.311166428036</v>
       </c>
       <c r="C321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D321" t="n">
-        <v>0.005642374866143864</v>
+        <v>0.02137705245178909</v>
       </c>
     </row>
     <row r="322">
@@ -4943,10 +4943,10 @@
         <v>113.23346030743</v>
       </c>
       <c r="C322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D322" t="n">
-        <v>0.02112555319319742</v>
+        <v>0.1085732055205149</v>
       </c>
     </row>
     <row r="323">
@@ -4957,10 +4957,10 @@
         <v>113.238775254148</v>
       </c>
       <c r="C323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D323" t="n">
-        <v>0.0166749526439456</v>
+        <v>0.09388216885235282</v>
       </c>
     </row>
     <row r="324">
@@ -4971,10 +4971,10 @@
         <v>113.283780707827</v>
       </c>
       <c r="C324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D324" t="n">
-        <v>0.006267329419495486</v>
+        <v>0.0351740582745915</v>
       </c>
     </row>
     <row r="325">
@@ -4985,10 +4985,10 @@
         <v>113.33669812113</v>
       </c>
       <c r="C325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D325" t="n">
-        <v>0.01824329703840854</v>
+        <v>0.0815832069506963</v>
       </c>
     </row>
     <row r="326">
@@ -4999,10 +4999,10 @@
         <v>113.249281992413</v>
       </c>
       <c r="C326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D326" t="n">
-        <v>0.01110937966620977</v>
+        <v>0.07214668081476318</v>
       </c>
     </row>
     <row r="327">
@@ -5013,10 +5013,10 @@
         <v>113.233372520524</v>
       </c>
       <c r="C327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D327" t="n">
-        <v>0.01317051705395016</v>
+        <v>0.08643321043027591</v>
       </c>
     </row>
     <row r="328">
@@ -5027,10 +5027,10 @@
         <v>113.264933810878</v>
       </c>
       <c r="C328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D328" t="n">
-        <v>0.01143483881935555</v>
+        <v>0.06589630446840655</v>
       </c>
     </row>
     <row r="329">
@@ -5041,10 +5041,10 @@
         <v>113.309807315155</v>
       </c>
       <c r="C329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D329" t="n">
-        <v>0.007921087061175043</v>
+        <v>0.03553595535229188</v>
       </c>
     </row>
     <row r="330">
@@ -5055,10 +5055,10 @@
         <v>113.246117778807</v>
       </c>
       <c r="C330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D330" t="n">
-        <v>0.02125628072131231</v>
+        <v>0.1049236190809333</v>
       </c>
     </row>
     <row r="331">
@@ -5069,10 +5069,10 @@
         <v>113.282637918591</v>
       </c>
       <c r="C331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D331" t="n">
-        <v>0.009170756319099783</v>
+        <v>0.04935790340570869</v>
       </c>
     </row>
     <row r="332">
@@ -5083,10 +5083,10 @@
         <v>113.236325834633</v>
       </c>
       <c r="C332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D332" t="n">
-        <v>0.02010897049414645</v>
+        <v>0.1047315973299272</v>
       </c>
     </row>
     <row r="333">
@@ -5097,10 +5097,10 @@
         <v>113.331306286413</v>
       </c>
       <c r="C333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D333" t="n">
-        <v>0.001790109401436674</v>
+        <v>0.03941487122718748</v>
       </c>
     </row>
     <row r="334">
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="D334" t="n">
-        <v>0.02897607689498376</v>
+        <v>0.1311804697809514</v>
       </c>
     </row>
     <row r="335">
@@ -5125,10 +5125,10 @@
         <v>113.28101500123</v>
       </c>
       <c r="C335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D335" t="n">
-        <v>0.0105009959120836</v>
+        <v>0.05588032244385737</v>
       </c>
     </row>
     <row r="336">
@@ -5139,10 +5139,10 @@
         <v>113.248234670775</v>
       </c>
       <c r="C336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D336" t="n">
-        <v>0.02082188484526671</v>
+        <v>0.1030044604096921</v>
       </c>
     </row>
     <row r="337">
@@ -5153,10 +5153,10 @@
         <v>113.232305309581</v>
       </c>
       <c r="C337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D337" t="n">
-        <v>0.01324830459943338</v>
+        <v>0.08720474479848798</v>
       </c>
     </row>
     <row r="338">
@@ -5167,10 +5167,10 @@
         <v>113.236867505669</v>
       </c>
       <c r="C338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D338" t="n">
-        <v>0.01285280576881594</v>
+        <v>0.08373616349673775</v>
       </c>
     </row>
     <row r="339">
@@ -5181,10 +5181,10 @@
         <v>113.331306286413</v>
       </c>
       <c r="C339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D339" t="n">
-        <v>0.001790109401436674</v>
+        <v>0.03941487122718748</v>
       </c>
     </row>
     <row r="340">
@@ -5195,10 +5195,10 @@
         <v>113.264376444648</v>
       </c>
       <c r="C340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D340" t="n">
-        <v>0.007957338359469908</v>
+        <v>0.0533296431233705</v>
       </c>
     </row>
     <row r="341">
@@ -5209,10 +5209,10 @@
         <v>113.283056999671</v>
       </c>
       <c r="C341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D341" t="n">
-        <v>0.007176046469033048</v>
+        <v>0.0398730177526452</v>
       </c>
     </row>
     <row r="342">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="D342" t="n">
-        <v>0.02931487971938865</v>
+        <v>0.1290469856436894</v>
       </c>
     </row>
     <row r="343">
@@ -5237,10 +5237,10 @@
         <v>113.264474385999</v>
       </c>
       <c r="C343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D343" t="n">
-        <v>0.01147635921431164</v>
+        <v>0.06624462286305943</v>
       </c>
     </row>
     <row r="344">
@@ -5251,10 +5251,10 @@
         <v>113.236085547791</v>
       </c>
       <c r="C344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D344" t="n">
-        <v>0.0122858606760767</v>
+        <v>0.08260221708702267</v>
       </c>
     </row>
     <row r="345">
@@ -5265,10 +5265,10 @@
         <v>113.322414943153</v>
       </c>
       <c r="C345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D345" t="n">
-        <v>0.02113975057686652</v>
+        <v>0.09172214865264636</v>
       </c>
     </row>
     <row r="346">
@@ -5279,10 +5279,10 @@
         <v>113.335895625293</v>
       </c>
       <c r="C346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D346" t="n">
-        <v>0.01362199394882803</v>
+        <v>0.06370730920122875</v>
       </c>
     </row>
     <row r="347">
@@ -5293,10 +5293,10 @@
         <v>113.279566039833</v>
       </c>
       <c r="C347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D347" t="n">
-        <v>0.006490069563511275</v>
+        <v>0.0386179877486863</v>
       </c>
     </row>
     <row r="348">
@@ -5307,10 +5307,10 @@
         <v>113.24107025225</v>
       </c>
       <c r="C348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D348" t="n">
-        <v>0.01729556904741735</v>
+        <v>0.09482274010229361</v>
       </c>
     </row>
     <row r="349">
@@ -5321,10 +5321,10 @@
         <v>113.309597291327</v>
       </c>
       <c r="C349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D349" t="n">
-        <v>0.00820222190249501</v>
+        <v>0.03714243540478041</v>
       </c>
     </row>
     <row r="350">
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="D350" t="n">
-        <v>0.02930420470261409</v>
+        <v>0.1314792202517812</v>
       </c>
     </row>
     <row r="351">
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="D351" t="n">
-        <v>0.02433806134306852</v>
+        <v>0.1088854319683056</v>
       </c>
     </row>
     <row r="352">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="D352" t="n">
-        <v>0.02687514976269069</v>
+        <v>0.1189569438466481</v>
       </c>
     </row>
     <row r="353">
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="D353" t="n">
-        <v>1.05520991259681</v>
+        <v>0.03399689931229355</v>
       </c>
     </row>
     <row r="354">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="D354" t="n">
-        <v>1.024618058440443</v>
+        <v>0.1795652900203157</v>
       </c>
     </row>
     <row r="355">
@@ -5408,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="D355" t="n">
-        <v>0.7512043028303919</v>
+        <v>0.1645985105693167</v>
       </c>
     </row>
     <row r="356">
@@ -5422,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="D356" t="n">
-        <v>0.9896795970412384</v>
+        <v>0.09292351548940529</v>
       </c>
     </row>
     <row r="357">
@@ -5436,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="D357" t="n">
-        <v>1.232115108292892</v>
+        <v>0.1159944817438801</v>
       </c>
     </row>
     <row r="358">
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="D358" t="n">
-        <v>0.9790700759920237</v>
+        <v>0.1065233088957513</v>
       </c>
     </row>
     <row r="359">
@@ -5464,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="D359" t="n">
-        <v>0.6955970878102644</v>
+        <v>0.2042188671793916</v>
       </c>
     </row>
     <row r="360">
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="D360" t="n">
-        <v>1.048209882940339</v>
+        <v>0.103057014042368</v>
       </c>
     </row>
     <row r="361">
@@ -5489,10 +5489,10 @@
         <v>113.397404768457</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D361" t="n">
-        <v>0.1025890382609304</v>
+        <v>0.2055083660418519</v>
       </c>
     </row>
     <row r="362">
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="D362" t="n">
-        <v>0.8189462800527558</v>
+        <v>0.09710264276144662</v>
       </c>
     </row>
     <row r="363">
@@ -5517,10 +5517,10 @@
         <v>113.235560013017</v>
       </c>
       <c r="C363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D363" t="n">
-        <v>0.0130486569327418</v>
+        <v>0.08495680943281501</v>
       </c>
     </row>
     <row r="364">
@@ -5531,10 +5531,10 @@
         <v>113.301097836307</v>
       </c>
       <c r="C364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D364" t="n">
-        <v>0.001788804036416711</v>
+        <v>0.012139065071867</v>
       </c>
     </row>
     <row r="365">
@@ -5545,10 +5545,10 @@
         <v>113.362141773997</v>
       </c>
       <c r="C365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D365" t="n">
-        <v>0.004781001744215474</v>
+        <v>0.06648137844308293</v>
       </c>
     </row>
     <row r="366">
@@ -5559,10 +5559,10 @@
         <v>113.278165851035</v>
       </c>
       <c r="C366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D366" t="n">
-        <v>0.003163702740094902</v>
+        <v>0.02914357802612118</v>
       </c>
     </row>
     <row r="367">
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="D367" t="n">
-        <v>1.12701693894481</v>
+        <v>0.1092363138928049</v>
       </c>
     </row>
     <row r="368">
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="D368" t="n">
-        <v>0.03450193387356653</v>
+        <v>0.1453705916982691</v>
       </c>
     </row>
     <row r="369">
@@ -5601,10 +5601,10 @@
         <v>113.362121549546</v>
       </c>
       <c r="C369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D369" t="n">
-        <v>0.004789603935685066</v>
+        <v>0.06625067003117942</v>
       </c>
     </row>
     <row r="370">
@@ -5615,10 +5615,10 @@
         <v>113.334818026987</v>
       </c>
       <c r="C370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D370" t="n">
-        <v>0.01513863453217116</v>
+        <v>0.06970590554553728</v>
       </c>
     </row>
     <row r="371">
@@ -5629,10 +5629,10 @@
         <v>113.65815243231</v>
       </c>
       <c r="C371" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D371" t="n">
-        <v>0.1799141270277092</v>
+        <v>0.1760912406171127</v>
       </c>
     </row>
     <row r="372">
@@ -5643,10 +5643,10 @@
         <v>113.660440161324</v>
       </c>
       <c r="C372" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D372" t="n">
-        <v>0.1685357899917747</v>
+        <v>0.200771482788453</v>
       </c>
     </row>
     <row r="373">
@@ -5660,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="D373" t="n">
-        <v>1.058501354335049</v>
+        <v>0.03691529251622953</v>
       </c>
     </row>
     <row r="374">
@@ -5671,10 +5671,10 @@
         <v>113.315793623072</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D374" t="n">
-        <v>0.08141287976346162</v>
+        <v>0.1269768381175177</v>
       </c>
     </row>
     <row r="375">
@@ -5685,10 +5685,10 @@
         <v>113.32124534938</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D375" t="n">
-        <v>0.1133894700977994</v>
+        <v>0.1310072539010527</v>
       </c>
     </row>
     <row r="376">
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="D376" t="n">
-        <v>0.03403954758381122</v>
+        <v>0.1351247190176529</v>
       </c>
     </row>
     <row r="377">
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="D377" t="n">
-        <v>0.03488671247696611</v>
+        <v>0.1373248021863307</v>
       </c>
     </row>
     <row r="378">
@@ -5727,10 +5727,10 @@
         <v>113.44558975742</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D378" t="n">
-        <v>0.1473017998405441</v>
+        <v>0.2564949232614471</v>
       </c>
     </row>
     <row r="379">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="D379" t="n">
-        <v>0.03499031161272723</v>
+        <v>0.1348363541998524</v>
       </c>
     </row>
     <row r="380">
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="D380" t="n">
-        <v>0.02998245686959921</v>
+        <v>0.120999537009312</v>
       </c>
     </row>
     <row r="381">
@@ -5769,10 +5769,10 @@
         <v>113.349796552716</v>
       </c>
       <c r="C381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D381" t="n">
-        <v>0.02075394022840968</v>
+        <v>0.09132433222870694</v>
       </c>
     </row>
     <row r="382">
@@ -5783,10 +5783,10 @@
         <v>113.593355832336</v>
       </c>
       <c r="C382" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D382" t="n">
-        <v>0.3796447999751592</v>
+        <v>0.2553747078371756</v>
       </c>
     </row>
     <row r="383">
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="D383" t="n">
-        <v>0.5450150265191908</v>
+        <v>0.4244665433659807</v>
       </c>
     </row>
     <row r="384">
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="D384" t="n">
-        <v>0.03227205585857908</v>
+        <v>0.1259950605365802</v>
       </c>
     </row>
     <row r="385">
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="D385" t="n">
-        <v>0.03798694209345502</v>
+        <v>0.1412591078052302</v>
       </c>
     </row>
     <row r="386">
@@ -5839,10 +5839,10 @@
         <v>113.553916809104</v>
       </c>
       <c r="C386" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D386" t="n">
-        <v>0.3244341265644494</v>
+        <v>0.2645906461234029</v>
       </c>
     </row>
     <row r="387">
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="D387" t="n">
-        <v>0.02936491500838198</v>
+        <v>0.1198802475336332</v>
       </c>
     </row>
     <row r="388">
@@ -5867,10 +5867,10 @@
         <v>113.521871138538</v>
       </c>
       <c r="C388" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D388" t="n">
-        <v>0.2896167002192248</v>
+        <v>0.2817082135068849</v>
       </c>
     </row>
     <row r="389">
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="D389" t="n">
-        <v>0.03246894060423867</v>
+        <v>0.1276812936732498</v>
       </c>
     </row>
     <row r="390">
@@ -5895,10 +5895,10 @@
         <v>113.258166227795</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D390" t="n">
-        <v>0.03670560107829933</v>
+        <v>0.1416474717050907</v>
       </c>
     </row>
     <row r="391">
@@ -5909,10 +5909,10 @@
         <v>113.220175512121</v>
       </c>
       <c r="C391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D391" t="n">
-        <v>0.02273369900146298</v>
+        <v>0.2030132432662883</v>
       </c>
     </row>
     <row r="392">
@@ -5923,10 +5923,10 @@
         <v>113.275790383623</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D392" t="n">
-        <v>0.05550247157395821</v>
+        <v>0.1147644311845319</v>
       </c>
     </row>
     <row r="393">
@@ -5937,10 +5937,10 @@
         <v>113.163008025374</v>
       </c>
       <c r="C393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D393" t="n">
-        <v>0.04252488290675072</v>
+        <v>0.2556268427237573</v>
       </c>
     </row>
     <row r="394">
@@ -5951,10 +5951,10 @@
         <v>113.253472000303</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D394" t="n">
-        <v>0.03987383519983688</v>
+        <v>0.1329920367373416</v>
       </c>
     </row>
     <row r="395">
@@ -5965,10 +5965,10 @@
         <v>113.328650207459</v>
       </c>
       <c r="C395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D395" t="n">
-        <v>0.01711791119795645</v>
+        <v>0.1798403242569255</v>
       </c>
     </row>
     <row r="396">
@@ -5979,10 +5979,10 @@
         <v>113.256925866412</v>
       </c>
       <c r="C396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D396" t="n">
-        <v>0.005325564401023415</v>
+        <v>0.1253116061679008</v>
       </c>
     </row>
     <row r="397">
@@ -5993,10 +5993,10 @@
         <v>113.330027902687</v>
       </c>
       <c r="C397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D397" t="n">
-        <v>0.01730465293825612</v>
+        <v>0.1803659952897706</v>
       </c>
     </row>
     <row r="398">
@@ -6007,10 +6007,10 @@
         <v>113.239851353182</v>
       </c>
       <c r="C398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D398" t="n">
-        <v>0.01070016602854797</v>
+        <v>0.1554053345313842</v>
       </c>
     </row>
     <row r="399">
@@ -6021,10 +6021,10 @@
         <v>113.425450543792</v>
       </c>
       <c r="C399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D399" t="n">
-        <v>0.0304993355564424</v>
+        <v>0.2053079930601729</v>
       </c>
     </row>
     <row r="400">
@@ -6035,10 +6035,10 @@
         <v>113.314598833626</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D400" t="n">
-        <v>0.0817515831369057</v>
+        <v>0.1256591163487976</v>
       </c>
     </row>
     <row r="401">
@@ -6049,10 +6049,10 @@
         <v>113.329363505152</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D401" t="n">
-        <v>0.1173070275318227</v>
+        <v>0.1399125501662647</v>
       </c>
     </row>
     <row r="402">
@@ -6063,10 +6063,10 @@
         <v>113.395322940947</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D402" t="n">
-        <v>0.1014562963128005</v>
+        <v>0.2034903991982751</v>
       </c>
     </row>
     <row r="403">
@@ -6077,10 +6077,10 @@
         <v>113.461447492481</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D403" t="n">
-        <v>0.2089743298042119</v>
+        <v>0.2917341423941218</v>
       </c>
     </row>
     <row r="404">
@@ -6091,10 +6091,10 @@
         <v>113.34507674867</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D404" t="n">
-        <v>0.2265404610398895</v>
+        <v>0.2212340410056949</v>
       </c>
     </row>
     <row r="405">
@@ -6105,10 +6105,10 @@
         <v>113.17289253005</v>
       </c>
       <c r="C405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D405" t="n">
-        <v>0.03698758324328351</v>
+        <v>0.2419230657408596</v>
       </c>
     </row>
     <row r="406">
@@ -6119,10 +6119,10 @@
         <v>113.317861522355</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D406" t="n">
-        <v>0.08339240480930796</v>
+        <v>0.1282935029844695</v>
       </c>
     </row>
     <row r="407">
@@ -6133,10 +6133,10 @@
         <v>113.497229597034</v>
       </c>
       <c r="C407" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D407" t="n">
-        <v>0.1566391047374408</v>
+        <v>0.2731768085325601</v>
       </c>
     </row>
     <row r="408">
@@ -6147,10 +6147,10 @@
         <v>113.349896587119</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D408" t="n">
-        <v>0.2292098555509884</v>
+        <v>0.2262184428615836</v>
       </c>
     </row>
     <row r="409">
@@ -6161,10 +6161,10 @@
         <v>113.350763623513</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D409" t="n">
-        <v>0.1657510394271407</v>
+        <v>0.1822834059208936</v>
       </c>
     </row>
     <row r="410">
@@ -6175,10 +6175,10 @@
         <v>113.320897653944</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D410" t="n">
-        <v>0.08365333272889253</v>
+        <v>0.1312328842799372</v>
       </c>
     </row>
     <row r="411">
@@ -6189,10 +6189,10 @@
         <v>113.360998992846</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D411" t="n">
-        <v>0.1375889260809917</v>
+        <v>0.1765405916124685</v>
       </c>
     </row>
     <row r="412">
@@ -6203,10 +6203,10 @@
         <v>113.33540875269</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D412" t="n">
-        <v>0.1190950724404748</v>
+        <v>0.1462235122884628</v>
       </c>
     </row>
     <row r="413">
@@ -6217,10 +6217,10 @@
         <v>113.442775215343</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D413" t="n">
-        <v>0.1476518334742194</v>
+        <v>0.2539815676762029</v>
       </c>
     </row>
     <row r="414">
@@ -6231,10 +6231,10 @@
         <v>113.406359711981</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D414" t="n">
-        <v>0.1368829572870655</v>
+        <v>0.2177865724411231</v>
       </c>
     </row>
     <row r="415">
@@ -6245,10 +6245,10 @@
         <v>113.406340583464</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D415" t="n">
-        <v>0.14335132179623</v>
+        <v>0.2195825292406936</v>
       </c>
     </row>
     <row r="416">
@@ -6259,10 +6259,10 @@
         <v>113.597955232004</v>
       </c>
       <c r="C416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D416" t="n">
-        <v>0.1433154675074708</v>
+        <v>0.4027011694005899</v>
       </c>
     </row>
     <row r="417">
@@ -6273,10 +6273,10 @@
         <v>113.406527119341</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D417" t="n">
-        <v>0.1513478399188138</v>
+        <v>0.2223981471617515</v>
       </c>
     </row>
     <row r="418">
@@ -6287,10 +6287,10 @@
         <v>113.409663520219</v>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D418" t="n">
-        <v>0.1905424177070165</v>
+        <v>0.2427021091909408</v>
       </c>
     </row>
     <row r="419">
@@ -6301,10 +6301,10 @@
         <v>113.331499140264</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D419" t="n">
-        <v>0.09095856642080608</v>
+        <v>0.1400661490395689</v>
       </c>
     </row>
     <row r="420">
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="D420" t="n">
-        <v>0.03161328599783023</v>
+        <v>0.1411223763715317</v>
       </c>
     </row>
     <row r="421">
@@ -6329,10 +6329,10 @@
         <v>113.37569955141</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D421" t="n">
-        <v>0.1354835287659717</v>
+        <v>0.1891394521998416</v>
       </c>
     </row>
     <row r="422">
@@ -6343,10 +6343,10 @@
         <v>113.595113187405</v>
       </c>
       <c r="C422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D422" t="n">
-        <v>0.1470334278556629</v>
+        <v>0.4088770854746693</v>
       </c>
     </row>
     <row r="423">
@@ -6357,10 +6357,10 @@
         <v>113.362942086053</v>
       </c>
       <c r="C423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D423" t="n">
-        <v>0.004952497135950609</v>
+        <v>0.06604845964124322</v>
       </c>
     </row>
     <row r="424">
@@ -6371,10 +6371,10 @@
         <v>113.498304440238</v>
       </c>
       <c r="C424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D424" t="n">
-        <v>0.06083938533585326</v>
+        <v>0.2703501827531929</v>
       </c>
     </row>
     <row r="425">
@@ -6385,10 +6385,10 @@
         <v>113.292355934019</v>
       </c>
       <c r="C425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D425" t="n">
-        <v>0.004088971119974629</v>
+        <v>0.01893142072637879</v>
       </c>
     </row>
     <row r="426">
@@ -6399,10 +6399,10 @@
         <v>113.237639583208</v>
       </c>
       <c r="C426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D426" t="n">
-        <v>0.00442080161468394</v>
+        <v>0.07189551897298735</v>
       </c>
     </row>
     <row r="427">
@@ -6413,10 +6413,10 @@
         <v>113.595383667194</v>
       </c>
       <c r="C427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D427" t="n">
-        <v>0.1469943483781343</v>
+        <v>0.4087667236359122</v>
       </c>
     </row>
     <row r="428">
@@ -6427,10 +6427,10 @@
         <v>113.299976259658</v>
       </c>
       <c r="C428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D428" t="n">
-        <v>0.003291873635538111</v>
+        <v>0.008772536480133793</v>
       </c>
     </row>
     <row r="429">
@@ -6441,10 +6441,10 @@
         <v>113.595332846458</v>
       </c>
       <c r="C429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D429" t="n">
-        <v>0.1472330249776094</v>
+        <v>0.4091323768432116</v>
       </c>
     </row>
     <row r="430">
@@ -6455,10 +6455,10 @@
         <v>113.264351529246</v>
       </c>
       <c r="C430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D430" t="n">
-        <v>0.01265237208355475</v>
+        <v>0.07063441812474933</v>
       </c>
     </row>
     <row r="431">
@@ -6469,10 +6469,10 @@
         <v>113.282637918591</v>
       </c>
       <c r="C431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D431" t="n">
-        <v>0.009170756319099783</v>
+        <v>0.04935790340570869</v>
       </c>
     </row>
     <row r="432">
@@ -6483,10 +6483,10 @@
         <v>113.273663975906</v>
       </c>
       <c r="C432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D432" t="n">
-        <v>0.01000084038978221</v>
+        <v>0.05660356879185842</v>
       </c>
     </row>
     <row r="433">
@@ -6497,10 +6497,10 @@
         <v>113.186915348548</v>
       </c>
       <c r="C433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D433" t="n">
-        <v>0.0319015102674863</v>
+        <v>0.22894206492647</v>
       </c>
     </row>
     <row r="434">
@@ -6511,10 +6511,10 @@
         <v>113.213463779751</v>
       </c>
       <c r="C434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D434" t="n">
-        <v>0.01017010154665824</v>
+        <v>0.1462171752411247</v>
       </c>
     </row>
     <row r="435">
@@ -6525,10 +6525,10 @@
         <v>113.190817204106</v>
       </c>
       <c r="C435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D435" t="n">
-        <v>0.03615014707346458</v>
+        <v>0.2414962219592196</v>
       </c>
     </row>
     <row r="436">
@@ -6539,10 +6539,10 @@
         <v>113.17009429132</v>
       </c>
       <c r="C436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D436" t="n">
-        <v>0.04026541075089528</v>
+        <v>0.2505169419526062</v>
       </c>
     </row>
     <row r="437">
@@ -6553,10 +6553,10 @@
         <v>113.161180117391</v>
       </c>
       <c r="C437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D437" t="n">
-        <v>0.04117247741700773</v>
+        <v>0.2518398779481037</v>
       </c>
     </row>
     <row r="438">
@@ -6570,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="D438" t="n">
-        <v>1.105555966553304</v>
+        <v>0.1372322683133745</v>
       </c>
     </row>
     <row r="439">
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="D439" t="n">
-        <v>1.252845404290262</v>
+        <v>0.12677188173765</v>
       </c>
     </row>
     <row r="440">
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="D440" t="n">
-        <v>1.253590898290297</v>
+        <v>0.2180153393373868</v>
       </c>
     </row>
     <row r="441">
@@ -6612,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="D441" t="n">
-        <v>1.339769008822603</v>
+        <v>0.1653827741599951</v>
       </c>
     </row>
     <row r="442">
@@ -6626,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="D442" t="n">
-        <v>1.049719185498871</v>
+        <v>0.1021423385451454</v>
       </c>
     </row>
     <row r="443">
@@ -6640,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="D443" t="n">
-        <v>1.154559682075177</v>
+        <v>0.0889385525856918</v>
       </c>
     </row>
     <row r="444">
@@ -6654,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="D444" t="n">
-        <v>0.8265235205336388</v>
+        <v>0.09509042127906416</v>
       </c>
     </row>
     <row r="445">
@@ -6668,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="D445" t="n">
-        <v>1.25741347842315</v>
+        <v>0.1305100155227594</v>
       </c>
     </row>
     <row r="446">
@@ -6682,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="D446" t="n">
-        <v>1.157959436328345</v>
+        <v>0.1060828137132794</v>
       </c>
     </row>
     <row r="447">
@@ -6696,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="D447" t="n">
-        <v>1.153720355935964</v>
+        <v>0.1205234243069289</v>
       </c>
     </row>
     <row r="448">
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="D448" t="n">
-        <v>1.980535882938214</v>
+        <v>0.462471215366176</v>
       </c>
     </row>
     <row r="449">
@@ -6724,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="D449" t="n">
-        <v>1.017215143320695</v>
+        <v>0.01567010599202271</v>
       </c>
     </row>
     <row r="450">
@@ -6738,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="D450" t="n">
-        <v>0.6266743296711279</v>
+        <v>0.2205792682618767</v>
       </c>
     </row>
     <row r="451">
@@ -6752,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="D451" t="n">
-        <v>0.6477689150326011</v>
+        <v>0.1895479683909911</v>
       </c>
     </row>
     <row r="452">
@@ -6766,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="D452" t="n">
-        <v>0.6076754818680291</v>
+        <v>0.2181111284893688</v>
       </c>
     </row>
     <row r="453">
@@ -6780,7 +6780,7 @@
         <v>1</v>
       </c>
       <c r="D453" t="n">
-        <v>0.5752832708176412</v>
+        <v>0.2627178704321213</v>
       </c>
     </row>
     <row r="454">
@@ -6794,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="D454" t="n">
-        <v>0.9646160227424279</v>
+        <v>0.01220283091857638</v>
       </c>
     </row>
     <row r="455">
@@ -6805,10 +6805,10 @@
         <v>113.159491967779</v>
       </c>
       <c r="C455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D455" t="n">
-        <v>0.04099295306013905</v>
+        <v>0.2511353036172645</v>
       </c>
     </row>
     <row r="456">
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="D456" t="n">
-        <v>0.8901466659792363</v>
+        <v>0.1662374900685191</v>
       </c>
     </row>
     <row r="457">
@@ -6833,10 +6833,10 @@
         <v>113.562851527771</v>
       </c>
       <c r="C457" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D457" t="n">
-        <v>0.3324186781397427</v>
+        <v>0.259264653190713</v>
       </c>
     </row>
     <row r="458">
@@ -6850,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="D458" t="n">
-        <v>1.087651385762107</v>
+        <v>0.1146647963136393</v>
       </c>
     </row>
     <row r="459">
@@ -6861,10 +6861,10 @@
         <v>113.333153377047</v>
       </c>
       <c r="C459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D459" t="n">
-        <v>0.01700233136039758</v>
+        <v>0.07680724716235494</v>
       </c>
     </row>
     <row r="460">
@@ -6878,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="D460" t="n">
-        <v>1.047606898922537</v>
+        <v>0.1610108556681268</v>
       </c>
     </row>
     <row r="461">
@@ -6889,10 +6889,10 @@
         <v>113.30579152751</v>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D461" t="n">
-        <v>0.04750555598505899</v>
+        <v>0.1486035989324194</v>
       </c>
     </row>
     <row r="462">
@@ -6906,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="D462" t="n">
-        <v>1.198143072601382</v>
+        <v>0.1286214635998778</v>
       </c>
     </row>
     <row r="463">
@@ -6920,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="D463" t="n">
-        <v>1.24794270548228</v>
+        <v>0.1274502745150719</v>
       </c>
     </row>
     <row r="464">
@@ -6934,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="D464" t="n">
-        <v>1.271219865680624</v>
+        <v>0.1337257907902877</v>
       </c>
     </row>
     <row r="465">
@@ -6948,7 +6948,7 @@
         <v>1</v>
       </c>
       <c r="D465" t="n">
-        <v>0.9247407683597084</v>
+        <v>0.1621286705655481</v>
       </c>
     </row>
     <row r="466">
@@ -6962,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="D466" t="n">
-        <v>1.199013582144834</v>
+        <v>0.1198497965102747</v>
       </c>
     </row>
     <row r="467">
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="D467" t="n">
-        <v>0.03241759145763382</v>
+        <v>0.1263716587505635</v>
       </c>
     </row>
     <row r="468">
@@ -6987,10 +6987,10 @@
         <v>113.601178905529</v>
       </c>
       <c r="C468" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D468" t="n">
-        <v>0.1236316209458572</v>
+        <v>0.2485001214609682</v>
       </c>
     </row>
     <row r="469">
@@ -7001,10 +7001,10 @@
         <v>113.28906062063</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D469" t="n">
-        <v>0.03824629011396222</v>
+        <v>0.152641403990634</v>
       </c>
     </row>
     <row r="470">
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="D470" t="n">
-        <v>0.03251892728982099</v>
+        <v>0.1279006653852192</v>
       </c>
     </row>
     <row r="471">
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="D471" t="n">
-        <v>0.02550740285926429</v>
+        <v>0.1179176530428487</v>
       </c>
     </row>
     <row r="472">
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="D472" t="n">
-        <v>0.0497740588421954</v>
+        <v>0.1728170296487817</v>
       </c>
     </row>
     <row r="473">
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="D473" t="n">
-        <v>0.03732080940602787</v>
+        <v>0.1394884577858824</v>
       </c>
     </row>
     <row r="474">
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="D474" t="n">
-        <v>0.02793175666363763</v>
+        <v>0.1133725165312078</v>
       </c>
     </row>
     <row r="475">
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="D475" t="n">
-        <v>0.04860322828483399</v>
+        <v>0.1702507275324349</v>
       </c>
     </row>
     <row r="476">
@@ -7099,10 +7099,10 @@
         <v>113.271628398553</v>
       </c>
       <c r="C476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D476" t="n">
-        <v>0.01667234665214735</v>
+        <v>0.08287654740770863</v>
       </c>
     </row>
     <row r="477">
@@ -7113,10 +7113,10 @@
         <v>113.393421646793</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D477" t="n">
-        <v>0.1485737439182399</v>
+        <v>0.2097895266702197</v>
       </c>
     </row>
     <row r="478">
@@ -7127,10 +7127,10 @@
         <v>113.266406830693</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D478" t="n">
-        <v>0.04964360003662238</v>
+        <v>0.1185400888577947</v>
       </c>
     </row>
     <row r="479">
@@ -7141,10 +7141,10 @@
         <v>113.270313368219</v>
       </c>
       <c r="C479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D479" t="n">
-        <v>0.01469079571163253</v>
+        <v>0.07608552301035694</v>
       </c>
     </row>
     <row r="480">
@@ -7155,10 +7155,10 @@
         <v>113.124366095163</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D480" t="n">
-        <v>0.1249645501981985</v>
+        <v>0.06787226030802194</v>
       </c>
     </row>
     <row r="481">
@@ -7169,10 +7169,10 @@
         <v>113.788434186424</v>
       </c>
       <c r="C481" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D481" t="n">
-        <v>0.317123599599689</v>
+        <v>0.08584545689412587</v>
       </c>
     </row>
     <row r="482">
@@ -7183,10 +7183,10 @@
         <v>113.120130016956</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D482" t="n">
-        <v>0.1104062178446102</v>
+        <v>0.07825234041987456</v>
       </c>
     </row>
     <row r="483">
@@ -7197,10 +7197,10 @@
         <v>113.124130949323</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D483" t="n">
-        <v>0.1247255264919483</v>
+        <v>0.06813618431987178</v>
       </c>
     </row>
     <row r="484">
@@ -7211,10 +7211,10 @@
         <v>113.751681280112</v>
       </c>
       <c r="C484" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D484" t="n">
-        <v>0.4983099203164004</v>
+        <v>0.1843829748999295</v>
       </c>
     </row>
     <row r="485">
@@ -7228,7 +7228,7 @@
         <v>1</v>
       </c>
       <c r="D485" t="n">
-        <v>1.135700922560949</v>
+        <v>0.1564031586525825</v>
       </c>
     </row>
     <row r="486">
@@ -7242,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="D486" t="n">
-        <v>1.024827331452716</v>
+        <v>0.2078986309368502</v>
       </c>
     </row>
     <row r="487">
@@ -7253,10 +7253,10 @@
         <v>113.761810573039</v>
       </c>
       <c r="C487" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D487" t="n">
-        <v>0.4829612165181816</v>
+        <v>0.1601975414262722</v>
       </c>
     </row>
     <row r="488">
@@ -7267,10 +7267,10 @@
         <v>113.120797190255</v>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D488" t="n">
-        <v>0.1110258450895786</v>
+        <v>0.07705869028418709</v>
       </c>
     </row>
     <row r="489">
@@ -7281,10 +7281,10 @@
         <v>113.871321006181</v>
       </c>
       <c r="C489" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D489" t="n">
-        <v>0.4000063615103111</v>
+        <v>0.13880232688406</v>
       </c>
     </row>
     <row r="490">
@@ -7295,10 +7295,10 @@
         <v>113.643302609506</v>
       </c>
       <c r="C490" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D490" t="n">
-        <v>0.2804865181136315</v>
+        <v>0.13418467461315</v>
       </c>
     </row>
     <row r="491">
@@ -7312,7 +7312,7 @@
         <v>1</v>
       </c>
       <c r="D491" t="n">
-        <v>0.8858573045291317</v>
+        <v>0.24027295227122</v>
       </c>
     </row>
     <row r="492">
@@ -7323,10 +7323,10 @@
         <v>113.797148630807</v>
       </c>
       <c r="C492" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D492" t="n">
-        <v>0.3154201411515599</v>
+        <v>0.1072592141264259</v>
       </c>
     </row>
     <row r="493">
@@ -7337,10 +7337,10 @@
         <v>113.681719877102</v>
       </c>
       <c r="C493" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D493" t="n">
-        <v>0.2430651420967897</v>
+        <v>0.1010801210324092</v>
       </c>
     </row>
     <row r="494">
@@ -7351,10 +7351,10 @@
         <v>113.662638304127</v>
       </c>
       <c r="C494" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D494" t="n">
-        <v>0.1999434195559716</v>
+        <v>0.1471024525348218</v>
       </c>
     </row>
     <row r="495">
@@ -7365,10 +7365,10 @@
         <v>113.711922278254</v>
       </c>
       <c r="C495" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D495" t="n">
-        <v>0.2491955638090062</v>
+        <v>0.09932585666438533</v>
       </c>
     </row>
     <row r="496">
@@ -7379,10 +7379,10 @@
         <v>113.693671167163</v>
       </c>
       <c r="C496" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D496" t="n">
-        <v>0.212216851091534</v>
+        <v>0.1459334029308401</v>
       </c>
     </row>
     <row r="497">
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="D497" t="n">
-        <v>0.9496149781495092</v>
+        <v>0.2317106474135257</v>
       </c>
     </row>
     <row r="498">
@@ -7407,10 +7407,10 @@
         <v>113.823866505784</v>
       </c>
       <c r="C498" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D498" t="n">
-        <v>0.5403266974243534</v>
+        <v>0.164671924185447</v>
       </c>
     </row>
     <row r="499">
@@ -7421,10 +7421,10 @@
         <v>113.742463672955</v>
       </c>
       <c r="C499" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D499" t="n">
-        <v>0.443839295734124</v>
+        <v>0.141442623903939</v>
       </c>
     </row>
     <row r="500">
@@ -7438,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="D500" t="n">
-        <v>0.9767874025588893</v>
+        <v>0.2351209245928494</v>
       </c>
     </row>
     <row r="501">
@@ -7452,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="D501" t="n">
-        <v>0.9843427154469317</v>
+        <v>0.2368167141068368</v>
       </c>
     </row>
     <row r="502">
@@ -7463,10 +7463,10 @@
         <v>113.707651898251</v>
       </c>
       <c r="C502" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D502" t="n">
-        <v>0.2666323063115149</v>
+        <v>0.0766845591738519</v>
       </c>
     </row>
     <row r="503">
@@ -7477,10 +7477,10 @@
         <v>113.826672991858</v>
       </c>
       <c r="C503" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D503" t="n">
-        <v>0.347348898467853</v>
+        <v>0.1158317752509788</v>
       </c>
     </row>
     <row r="504">
@@ -7491,10 +7491,10 @@
         <v>113.645469398751</v>
       </c>
       <c r="C504" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D504" t="n">
-        <v>0.3447166451281916</v>
+        <v>0.1703913993864581</v>
       </c>
     </row>
     <row r="505">
@@ -7505,10 +7505,10 @@
         <v>113.631544853978</v>
       </c>
       <c r="C505" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D505" t="n">
-        <v>0.3286616157293973</v>
+        <v>0.1764428519392046</v>
       </c>
     </row>
     <row r="506">
@@ -7519,10 +7519,10 @@
         <v>113.853997648851</v>
       </c>
       <c r="C506" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D506" t="n">
-        <v>0.5191766886505376</v>
+        <v>0.1303255325656982</v>
       </c>
     </row>
     <row r="507">
@@ -7533,10 +7533,10 @@
         <v>113.803729101343</v>
       </c>
       <c r="C507" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D507" t="n">
-        <v>0.5051348014723366</v>
+        <v>0.1453855958957856</v>
       </c>
     </row>
     <row r="508">
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="D508" t="n">
-        <v>1.013218591917076</v>
+        <v>0.1845579149550518</v>
       </c>
     </row>
     <row r="509">
@@ -7561,10 +7561,10 @@
         <v>113.790786495221</v>
       </c>
       <c r="C509" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D509" t="n">
-        <v>0.5061637493660599</v>
+        <v>0.1567662327963212</v>
       </c>
     </row>
     <row r="510">
@@ -7575,10 +7575,10 @@
         <v>113.615440171139</v>
       </c>
       <c r="C510" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D510" t="n">
-        <v>0.2020959595537595</v>
+        <v>0.1595698854789289</v>
       </c>
     </row>
     <row r="511">
@@ -7589,10 +7589,10 @@
         <v>113.763894855302</v>
       </c>
       <c r="C511" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D511" t="n">
-        <v>0.5043717043832946</v>
+        <v>0.1786686353505858</v>
       </c>
     </row>
     <row r="512">
@@ -7603,10 +7603,10 @@
         <v>113.047410471082</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D512" t="n">
-        <v>0.1875005007893586</v>
+        <v>0.1507384298163248</v>
       </c>
     </row>
     <row r="513">
@@ -7617,10 +7617,10 @@
         <v>113.685852854091</v>
       </c>
       <c r="C513" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D513" t="n">
-        <v>0.2435360986715057</v>
+        <v>0.09985378016044956</v>
       </c>
     </row>
     <row r="514">
@@ -7631,10 +7631,10 @@
         <v>113.767262814975</v>
       </c>
       <c r="C514" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D514" t="n">
-        <v>0.508717393862694</v>
+        <v>0.1796840110276278</v>
       </c>
     </row>
     <row r="515">
@@ -7645,10 +7645,10 @@
         <v>113.842971110415</v>
       </c>
       <c r="C515" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D515" t="n">
-        <v>0.370329891543192</v>
+        <v>0.1163563965992438</v>
       </c>
     </row>
     <row r="516">
@@ -7659,10 +7659,10 @@
         <v>113.772501843648</v>
       </c>
       <c r="C516" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D516" t="n">
-        <v>0.3334455292444933</v>
+        <v>0.03046920128344437</v>
       </c>
     </row>
     <row r="517">
@@ -7673,10 +7673,10 @@
         <v>113.798738433932</v>
       </c>
       <c r="C517" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D517" t="n">
-        <v>0.3104536001117713</v>
+        <v>0.1206974247056067</v>
       </c>
     </row>
     <row r="518">
@@ -7687,10 +7687,10 @@
         <v>113.798758391046</v>
       </c>
       <c r="C518" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D518" t="n">
-        <v>0.3180311060032467</v>
+        <v>0.1057827542332162</v>
       </c>
     </row>
     <row r="519">
@@ -7701,10 +7701,10 @@
         <v>113.770091056211</v>
       </c>
       <c r="C519" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D519" t="n">
-        <v>0.2937804945084306</v>
+        <v>0.09432692784382192</v>
       </c>
     </row>
     <row r="520">
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="D520" t="n">
-        <v>0.8556961400697458</v>
+        <v>0.1476657442843336</v>
       </c>
     </row>
     <row r="521">
@@ -7729,10 +7729,10 @@
         <v>113.549906052461</v>
       </c>
       <c r="C521" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D521" t="n">
-        <v>0.1365154529471801</v>
+        <v>0.2368304044758356</v>
       </c>
     </row>
     <row r="522">
@@ -7743,10 +7743,10 @@
         <v>113.809035656989</v>
       </c>
       <c r="C522" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D522" t="n">
-        <v>0.5091709216525803</v>
+        <v>0.1453487227335858</v>
       </c>
     </row>
     <row r="523">
@@ -7757,10 +7757,10 @@
         <v>113.797833496682</v>
       </c>
       <c r="C523" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D523" t="n">
-        <v>0.5232723101846163</v>
+        <v>0.1674874380052743</v>
       </c>
     </row>
     <row r="524">
@@ -7771,10 +7771,10 @@
         <v>113.737400338018</v>
       </c>
       <c r="C524" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D524" t="n">
-        <v>0.2610701419454486</v>
+        <v>0.1047571282324233</v>
       </c>
     </row>
     <row r="525">
@@ -7785,10 +7785,10 @@
         <v>113.823368605583</v>
       </c>
       <c r="C525" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D525" t="n">
-        <v>0.3682316192127856</v>
+        <v>0.07790931706201439</v>
       </c>
     </row>
     <row r="526">
@@ -7799,10 +7799,10 @@
         <v>113.814796412968</v>
       </c>
       <c r="C526" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D526" t="n">
-        <v>0.3367955252756015</v>
+        <v>0.1070396634036878</v>
       </c>
     </row>
     <row r="527">
@@ -7813,10 +7813,10 @@
         <v>113.896613801214</v>
       </c>
       <c r="C527" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D527" t="n">
-        <v>0.4822689730483551</v>
+        <v>0.126864692097222</v>
       </c>
     </row>
     <row r="528">
@@ -7827,10 +7827,10 @@
         <v>113.768067630237</v>
       </c>
       <c r="C528" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D528" t="n">
-        <v>0.3147126476225058</v>
+        <v>0.05362765981289327</v>
       </c>
     </row>
     <row r="529">
@@ -7841,10 +7841,10 @@
         <v>113.800023321624</v>
       </c>
       <c r="C529" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D529" t="n">
-        <v>0.358062055698382</v>
+        <v>0.0454688758442563</v>
       </c>
     </row>
     <row r="530">
@@ -7855,10 +7855,10 @@
         <v>113.832168844729</v>
       </c>
       <c r="C530" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D530" t="n">
-        <v>0.3549766043276615</v>
+        <v>0.1157113431361166</v>
       </c>
     </row>
     <row r="531">
@@ -7869,10 +7869,10 @@
         <v>113.725147041239</v>
       </c>
       <c r="C531" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D531" t="n">
-        <v>0.2930198449968847</v>
+        <v>0.05205785832268103</v>
       </c>
     </row>
     <row r="532">
@@ -7883,10 +7883,10 @@
         <v>113.732371574368</v>
       </c>
       <c r="C532" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D532" t="n">
-        <v>0.2955959800873136</v>
+        <v>0.04945830682680743</v>
       </c>
     </row>
     <row r="533">
@@ -7897,10 +7897,10 @@
         <v>113.804578898355</v>
       </c>
       <c r="C533" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D533" t="n">
-        <v>0.3423577016007934</v>
+        <v>0.07596814498565292</v>
       </c>
     </row>
     <row r="534">
@@ -7911,10 +7911,10 @@
         <v>113.734588322874</v>
       </c>
       <c r="C534" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D534" t="n">
-        <v>0.3101245334970011</v>
+        <v>0.03778212162106716</v>
       </c>
     </row>
     <row r="535">
@@ -7925,10 +7925,10 @@
         <v>113.676795108485</v>
       </c>
       <c r="C535" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D535" t="n">
-        <v>0.286108939956677</v>
+        <v>0.0952914639580504</v>
       </c>
     </row>
     <row r="536">
@@ -7939,10 +7939,10 @@
         <v>113.255757350605</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D536" t="n">
-        <v>0.2244085628496975</v>
+        <v>0.1709842094419009</v>
       </c>
     </row>
     <row r="537">
@@ -7953,10 +7953,10 @@
         <v>113.810219858108</v>
       </c>
       <c r="C537" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D537" t="n">
-        <v>0.3303197601019088</v>
+        <v>0.1083526028843935</v>
       </c>
     </row>
     <row r="538">
@@ -7967,10 +7967,10 @@
         <v>112.899403058306</v>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D538" t="n">
-        <v>0.1747078057784623</v>
+        <v>0.3422157620723709</v>
       </c>
     </row>
     <row r="539">
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="D539" t="n">
-        <v>0.07082560874724184</v>
+        <v>0.2543907660584956</v>
       </c>
     </row>
     <row r="540">
@@ -7995,10 +7995,10 @@
         <v>112.87840230232</v>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D540" t="n">
-        <v>0.1924537623160096</v>
+        <v>0.359086791789915</v>
       </c>
     </row>
     <row r="541">
@@ -8009,10 +8009,10 @@
         <v>112.907385715472</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D541" t="n">
-        <v>0.1712609727351358</v>
+        <v>0.3302806336005073</v>
       </c>
     </row>
     <row r="542">
@@ -8023,10 +8023,10 @@
         <v>113.024751811431</v>
       </c>
       <c r="C542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D542" t="n">
-        <v>0.07572237113874937</v>
+        <v>0.2825214921306695</v>
       </c>
     </row>
     <row r="543">
@@ -8037,10 +8037,10 @@
         <v>112.893812550085</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D543" t="n">
-        <v>0.1821852355127297</v>
+        <v>0.3416702046994121</v>
       </c>
     </row>
     <row r="544">
@@ -8051,10 +8051,10 @@
         <v>112.914899704195</v>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D544" t="n">
-        <v>0.167353433441791</v>
+        <v>0.3206569834145918</v>
       </c>
     </row>
     <row r="545">
@@ -8065,10 +8065,10 @@
         <v>112.84454078101</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D545" t="n">
-        <v>0.2625318200001456</v>
+        <v>0.3542824898339509</v>
       </c>
     </row>
     <row r="546">
@@ -8079,10 +8079,10 @@
         <v>112.901982569526</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D546" t="n">
-        <v>0.3232990851908133</v>
+        <v>0.3062263478973928</v>
       </c>
     </row>
     <row r="547">
@@ -8093,10 +8093,10 @@
         <v>113.2034172001</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D547" t="n">
-        <v>0.08495807680070573</v>
+        <v>0.03826031035611968</v>
       </c>
     </row>
     <row r="548">
@@ -8107,10 +8107,10 @@
         <v>113.171393135087</v>
       </c>
       <c r="C548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D548" t="n">
-        <v>0.02783492566664322</v>
+        <v>0.1486431879488638</v>
       </c>
     </row>
     <row r="549">
@@ -8121,10 +8121,10 @@
         <v>112.906063634338</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D549" t="n">
-        <v>0.1720665167859137</v>
+        <v>0.331802967575588</v>
       </c>
     </row>
     <row r="550">
@@ -8135,10 +8135,10 @@
         <v>113.226557750351</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D550" t="n">
-        <v>0.196101769303577</v>
+        <v>0.1288450044961535</v>
       </c>
     </row>
     <row r="551">
@@ -8149,10 +8149,10 @@
         <v>113.205158375788</v>
       </c>
       <c r="C551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D551" t="n">
-        <v>0.02418509949647834</v>
+        <v>0.1266893977098955</v>
       </c>
     </row>
     <row r="552">
@@ -8163,10 +8163,10 @@
         <v>113.177420842311</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D552" t="n">
-        <v>0.05287826526011546</v>
+        <v>0.1164799101183646</v>
       </c>
     </row>
     <row r="553">
@@ -8177,10 +8177,10 @@
         <v>113.110448529325</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D553" t="n">
-        <v>0.06243934669395934</v>
+        <v>0.1659875007905192</v>
       </c>
     </row>
     <row r="554">
@@ -8191,10 +8191,10 @@
         <v>113.191485208337</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D554" t="n">
-        <v>0.04795230410079009</v>
+        <v>0.120222558488513</v>
       </c>
     </row>
     <row r="555">
@@ -8205,10 +8205,10 @@
         <v>112.902415982172</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D555" t="n">
-        <v>0.1757604899097187</v>
+        <v>0.3335156323103247</v>
       </c>
     </row>
     <row r="556">
@@ -8219,10 +8219,10 @@
         <v>113.199121080051</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D556" t="n">
-        <v>0.05370396623093794</v>
+        <v>0.1024850234170057</v>
       </c>
     </row>
     <row r="557">
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="D557" t="n">
-        <v>0.05754606513526318</v>
+        <v>0.2280563794057517</v>
       </c>
     </row>
     <row r="558">
@@ -8247,10 +8247,10 @@
         <v>113.142195274851</v>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D558" t="n">
-        <v>0.08509807669613</v>
+        <v>0.0817079508048377</v>
       </c>
     </row>
     <row r="559">
@@ -8261,10 +8261,10 @@
         <v>112.921450878294</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D559" t="n">
-        <v>0.2129291770188544</v>
+        <v>0.2739207225799754</v>
       </c>
     </row>
     <row r="560">
@@ -8275,10 +8275,10 @@
         <v>113.000031758026</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D560" t="n">
-        <v>0.3161091469499429</v>
+        <v>0.2535630066358472</v>
       </c>
     </row>
     <row r="561">
@@ -8289,10 +8289,10 @@
         <v>113.008964017539</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D561" t="n">
-        <v>0.1767164270959929</v>
+        <v>0.1832467054860697</v>
       </c>
     </row>
     <row r="562">
@@ -8303,10 +8303,10 @@
         <v>112.971287414513</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D562" t="n">
-        <v>0.2356224910311758</v>
+        <v>0.2261548999109715</v>
       </c>
     </row>
     <row r="563">
@@ -8317,10 +8317,10 @@
         <v>113.041381325849</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D563" t="n">
-        <v>0.1203999335076261</v>
+        <v>0.1689062531853981</v>
       </c>
     </row>
     <row r="564">
@@ -8331,10 +8331,10 @@
         <v>113.015288870752</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D564" t="n">
-        <v>0.1187757526754572</v>
+        <v>0.2090651693463188</v>
       </c>
     </row>
     <row r="565">
@@ -8345,10 +8345,10 @@
         <v>113.2034172001</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D565" t="n">
-        <v>0.08495807680070573</v>
+        <v>0.03826031035611968</v>
       </c>
     </row>
     <row r="566">
@@ -8359,10 +8359,10 @@
         <v>113.156188978369</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D566" t="n">
-        <v>0.0796311467102227</v>
+        <v>0.07646923412992288</v>
       </c>
     </row>
     <row r="567">
@@ -8373,10 +8373,10 @@
         <v>112.892336616166</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D567" t="n">
-        <v>0.3318802276894131</v>
+        <v>0.3157275242745788</v>
       </c>
     </row>
     <row r="568">
@@ -8387,10 +8387,10 @@
         <v>113.135579080501</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D568" t="n">
-        <v>0.08869698977799566</v>
+        <v>0.08362299557233803</v>
       </c>
     </row>
     <row r="569">
@@ -8401,10 +8401,10 @@
         <v>112.884142464646</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D569" t="n">
-        <v>0.3324529669404374</v>
+        <v>0.3213183558325772</v>
       </c>
     </row>
     <row r="570">
@@ -8415,10 +8415,10 @@
         <v>113.170454746287</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D570" t="n">
-        <v>0.09207560247804386</v>
+        <v>0.04247783197726951</v>
       </c>
     </row>
     <row r="571">
@@ -8429,10 +8429,10 @@
         <v>113.132115298896</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D571" t="n">
-        <v>0.08878873397669515</v>
+        <v>0.08747405996925979</v>
       </c>
     </row>
     <row r="572">
@@ -8443,10 +8443,10 @@
         <v>112.904940835095</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D572" t="n">
-        <v>0.1770544993579448</v>
+        <v>0.3261488803589632</v>
       </c>
     </row>
     <row r="573">
@@ -8457,10 +8457,10 @@
         <v>113.057661099931</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D573" t="n">
-        <v>0.1161192920027187</v>
+        <v>0.1509177141672595</v>
       </c>
     </row>
     <row r="574">
@@ -8471,10 +8471,10 @@
         <v>113.089683174299</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D574" t="n">
-        <v>0.101091245547875</v>
+        <v>0.1242539829333758</v>
       </c>
     </row>
     <row r="575">
@@ -8485,10 +8485,10 @@
         <v>113.156351582446</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D575" t="n">
-        <v>0.09617388466451907</v>
+        <v>0.0506268060204161</v>
       </c>
     </row>
     <row r="576">
@@ -8499,10 +8499,10 @@
         <v>112.88832892405</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D576" t="n">
-        <v>0.3408322157032076</v>
+        <v>0.3217295303757687</v>
       </c>
     </row>
     <row r="577">
@@ -8513,10 +8513,10 @@
         <v>113.307528712027</v>
       </c>
       <c r="C577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D577" t="n">
-        <v>0.0005690468991532617</v>
+        <v>0.07227804860941044</v>
       </c>
     </row>
     <row r="578">
@@ -8527,10 +8527,10 @@
         <v>113.089683174299</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D578" t="n">
-        <v>0.101091245547875</v>
+        <v>0.1242539829333758</v>
       </c>
     </row>
     <row r="579">
@@ -8541,10 +8541,10 @@
         <v>112.970763459859</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D579" t="n">
-        <v>0.1660366251091343</v>
+        <v>0.2310287214220574</v>
       </c>
     </row>
     <row r="580">
@@ -8555,10 +8555,10 @@
         <v>113.147041134516</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D580" t="n">
-        <v>0.09563924739758305</v>
+        <v>0.0613721217600813</v>
       </c>
     </row>
     <row r="581">
@@ -8569,10 +8569,10 @@
         <v>113.154622038916</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D581" t="n">
-        <v>0.09569526892628123</v>
+        <v>0.05307591499430701</v>
       </c>
     </row>
     <row r="582">
@@ -8583,10 +8583,10 @@
         <v>113.017085872534</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D582" t="n">
-        <v>0.184299326673564</v>
+        <v>0.1756282148747967</v>
       </c>
     </row>
     <row r="583">
@@ -8597,10 +8597,10 @@
         <v>113.041882016009</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D583" t="n">
-        <v>0.1116684239600558</v>
+        <v>0.1776426306012525</v>
       </c>
     </row>
     <row r="584">
@@ -8611,10 +8611,10 @@
         <v>113.165181581555</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D584" t="n">
-        <v>0.1071803249149567</v>
+        <v>0.02979804334887469</v>
       </c>
     </row>
     <row r="585">
@@ -8625,10 +8625,10 @@
         <v>112.683258303145</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D585" t="n">
-        <v>0.6147938721439249</v>
+        <v>0.5389806918550988</v>
       </c>
     </row>
     <row r="586">
@@ -8639,10 +8639,10 @@
         <v>113.137340153956</v>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D586" t="n">
-        <v>0.1000177063207089</v>
+        <v>0.06727409597188103</v>
       </c>
     </row>
     <row r="587">
@@ -8653,10 +8653,10 @@
         <v>113.108061364898</v>
       </c>
       <c r="C587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D587" t="n">
-        <v>0.1342021293366908</v>
+        <v>0.08410313494181328</v>
       </c>
     </row>
     <row r="588">
@@ -8667,10 +8667,10 @@
         <v>112.885001154883</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D588" t="n">
-        <v>0.3394176930611424</v>
+        <v>0.323293574034829</v>
       </c>
     </row>
     <row r="589">
@@ -8681,10 +8681,10 @@
         <v>113.129028721165</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D589" t="n">
-        <v>0.1227412462726895</v>
+        <v>0.06328591013540964</v>
       </c>
     </row>
     <row r="590">
@@ -8695,10 +8695,10 @@
         <v>113.088038588012</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D590" t="n">
-        <v>0.1214603882263473</v>
+        <v>0.1091194175049857</v>
       </c>
     </row>
     <row r="591">
@@ -8709,10 +8709,10 @@
         <v>113.090144599704</v>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D591" t="n">
-        <v>0.1205443389255977</v>
+        <v>0.1071395600872287</v>
       </c>
     </row>
     <row r="592">
@@ -8723,10 +8723,10 @@
         <v>112.970789906871</v>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D592" t="n">
-        <v>0.2008067120801247</v>
+        <v>0.2213832475741752</v>
       </c>
     </row>
     <row r="593">
@@ -8737,10 +8737,10 @@
         <v>113.07259701903</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D593" t="n">
-        <v>0.125708905551482</v>
+        <v>0.1251265468403216</v>
       </c>
     </row>
     <row r="594">
@@ -8751,10 +8751,10 @@
         <v>113.062678084999</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D594" t="n">
-        <v>0.1941818260973952</v>
+        <v>0.1432400990454853</v>
       </c>
     </row>
     <row r="595">
@@ -8765,10 +8765,10 @@
         <v>113.111573746807</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D595" t="n">
-        <v>0.1089821218282304</v>
+        <v>0.08936410160517222</v>
       </c>
     </row>
     <row r="596">
@@ -8779,10 +8779,10 @@
         <v>113.10737208987</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D596" t="n">
-        <v>0.1116548839815463</v>
+        <v>0.09234788324235325</v>
       </c>
     </row>
     <row r="597">
@@ -8793,10 +8793,10 @@
         <v>113.070423194968</v>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D597" t="n">
-        <v>0.1471608664586385</v>
+        <v>0.1217383759075508</v>
       </c>
     </row>
     <row r="598">
@@ -8807,10 +8807,10 @@
         <v>113.071886353372</v>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D598" t="n">
-        <v>0.1206998921938805</v>
+        <v>0.1290261690705617</v>
       </c>
     </row>
     <row r="599">
@@ -8821,10 +8821,10 @@
         <v>113.064006671661</v>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D599" t="n">
-        <v>0.1322532239979747</v>
+        <v>0.1321173255764973</v>
       </c>
     </row>
     <row r="600">
@@ -8835,10 +8835,10 @@
         <v>113.121425020467</v>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D600" t="n">
-        <v>0.1112677547568325</v>
+        <v>0.07617404417086643</v>
       </c>
     </row>
     <row r="601">
@@ -8849,10 +8849,10 @@
         <v>113.139314774692</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D601" t="n">
-        <v>0.1109387186865851</v>
+        <v>0.05605488182464071</v>
       </c>
     </row>
     <row r="602">
@@ -8863,10 +8863,10 @@
         <v>113.072310229606</v>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D602" t="n">
-        <v>0.1548266351809076</v>
+        <v>0.1203623705128677</v>
       </c>
     </row>
     <row r="603">
@@ -8877,10 +8877,10 @@
         <v>113.14034911869</v>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D603" t="n">
-        <v>0.1074328711360458</v>
+        <v>0.05716838218069625</v>
       </c>
     </row>
     <row r="604">
@@ -8891,10 +8891,10 @@
         <v>113.105616652684</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D604" t="n">
-        <v>0.1097894268820837</v>
+        <v>0.09584937269114166</v>
       </c>
     </row>
     <row r="605">
@@ -8905,10 +8905,10 @@
         <v>113.057659469996</v>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D605" t="n">
-        <v>0.1377023752808173</v>
+        <v>0.1373288381514525</v>
       </c>
     </row>
     <row r="606">
@@ -8919,10 +8919,10 @@
         <v>113.12023264297</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D606" t="n">
-        <v>0.1220308793536096</v>
+        <v>0.0727029676163394</v>
       </c>
     </row>
     <row r="607">
@@ -8933,10 +8933,10 @@
         <v>113.121004643132</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D607" t="n">
-        <v>0.1032212663244932</v>
+        <v>0.08315447829416095</v>
       </c>
     </row>
     <row r="608">
@@ -8947,10 +8947,10 @@
         <v>113.06518692922</v>
       </c>
       <c r="C608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D608" t="n">
-        <v>0.150664472995164</v>
+        <v>0.1269568152627863</v>
       </c>
     </row>
     <row r="609">
@@ -8961,10 +8961,10 @@
         <v>113.1298659419</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D609" t="n">
-        <v>0.1086282497737923</v>
+        <v>0.06825641260421753</v>
       </c>
     </row>
     <row r="610">
@@ -8975,10 +8975,10 @@
         <v>113.67609750868</v>
       </c>
       <c r="C610" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D610" t="n">
-        <v>0.3063536626720277</v>
+        <v>0.1048198065027461</v>
       </c>
     </row>
     <row r="611">
@@ -8992,7 +8992,7 @@
         <v>1</v>
       </c>
       <c r="D611" t="n">
-        <v>0.9496021981893357</v>
+        <v>0.2327624534343857</v>
       </c>
     </row>
     <row r="612">
@@ -9003,10 +9003,10 @@
         <v>113.092542767296</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D612" t="n">
-        <v>0.1345023240015057</v>
+        <v>0.0998705136055128</v>
       </c>
     </row>
     <row r="613">
@@ -9017,10 +9017,10 @@
         <v>114.00208465958</v>
       </c>
       <c r="C613" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D613" t="n">
-        <v>0.6131736234294262</v>
+        <v>0.2328306525822908</v>
       </c>
     </row>
     <row r="614">
@@ -9031,10 +9031,10 @@
         <v>113.146297253114</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D614" t="n">
-        <v>0.1150906413854185</v>
+        <v>0.04658904420705277</v>
       </c>
     </row>
     <row r="615">
@@ -9045,10 +9045,10 @@
         <v>113.135566462902</v>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D615" t="n">
-        <v>0.1212371764263231</v>
+        <v>0.05669476961005975</v>
       </c>
     </row>
     <row r="616">
@@ -9059,10 +9059,10 @@
         <v>113.675682632569</v>
       </c>
       <c r="C616" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D616" t="n">
-        <v>0.2835436777566282</v>
+        <v>0.09593561475963903</v>
       </c>
     </row>
     <row r="617">
@@ -9073,10 +9073,10 @@
         <v>113.96781959271</v>
       </c>
       <c r="C617" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D617" t="n">
-        <v>0.5085178539644466</v>
+        <v>0.231028372667452</v>
       </c>
     </row>
     <row r="618">
@@ -9087,10 +9087,10 @@
         <v>113.940333894816</v>
       </c>
       <c r="C618" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D618" t="n">
-        <v>0.5638949719574671</v>
+        <v>0.1727322931959616</v>
       </c>
     </row>
     <row r="619">
@@ -9104,7 +9104,7 @@
         <v>1</v>
       </c>
       <c r="D619" t="n">
-        <v>1.023110031944331</v>
+        <v>0.1857058469778375</v>
       </c>
     </row>
     <row r="620">
@@ -9115,10 +9115,10 @@
         <v>113.78268970834</v>
       </c>
       <c r="C620" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D620" t="n">
-        <v>0.5038224716827788</v>
+        <v>0.1613731559444523</v>
       </c>
     </row>
     <row r="621">
@@ -9129,10 +9129,10 @@
         <v>113.956267034415</v>
       </c>
       <c r="C621" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D621" t="n">
-        <v>0.5511281206998618</v>
+        <v>0.187100463594053</v>
       </c>
     </row>
     <row r="622">
@@ -9143,10 +9143,10 @@
         <v>113.780171847827</v>
       </c>
       <c r="C622" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D622" t="n">
-        <v>0.47045528226069</v>
+        <v>0.1303476573627438</v>
       </c>
     </row>
     <row r="623">
@@ -9160,7 +9160,7 @@
         <v>1</v>
       </c>
       <c r="D623" t="n">
-        <v>1.158636087290921</v>
+        <v>0.175479206253763</v>
       </c>
     </row>
     <row r="624">
@@ -9174,7 +9174,7 @@
         <v>1</v>
       </c>
       <c r="D624" t="n">
-        <v>0.8675210376946829</v>
+        <v>0.1279636951833697</v>
       </c>
     </row>
     <row r="625">
@@ -9188,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="D625" t="n">
-        <v>0.8603849474486425</v>
+        <v>0.1439755438696809</v>
       </c>
     </row>
     <row r="626">
@@ -9199,10 +9199,10 @@
         <v>113.809035656989</v>
       </c>
       <c r="C626" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D626" t="n">
-        <v>0.5091709216525803</v>
+        <v>0.1453487227335858</v>
       </c>
     </row>
     <row r="627">
@@ -9213,10 +9213,10 @@
         <v>113.855765592247</v>
       </c>
       <c r="C627" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D627" t="n">
-        <v>0.3860493899872774</v>
+        <v>0.122706831383506</v>
       </c>
     </row>
     <row r="628">
@@ -9227,10 +9227,10 @@
         <v>113.809330215857</v>
       </c>
       <c r="C628" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D628" t="n">
-        <v>0.5107708404006622</v>
+        <v>0.1466892574790697</v>
       </c>
     </row>
     <row r="629">
@@ -9241,10 +9241,10 @@
         <v>113.668950192994</v>
       </c>
       <c r="C629" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D629" t="n">
-        <v>0.2944063309234436</v>
+        <v>0.1080808195172136</v>
       </c>
     </row>
     <row r="630">
@@ -9255,10 +9255,10 @@
         <v>113.706687858337</v>
       </c>
       <c r="C630" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D630" t="n">
-        <v>0.3971885528564831</v>
+        <v>0.1377766212994531</v>
       </c>
     </row>
     <row r="631">
@@ -9269,10 +9269,10 @@
         <v>113.833431230766</v>
       </c>
       <c r="C631" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D631" t="n">
-        <v>0.3711491715249744</v>
+        <v>0.09461905745073214</v>
       </c>
     </row>
     <row r="632">
@@ -9283,10 +9283,10 @@
         <v>113.620642866499</v>
       </c>
       <c r="C632" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D632" t="n">
-        <v>0.2065713478951725</v>
+        <v>0.154094457200678</v>
       </c>
     </row>
     <row r="633">
@@ -9300,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="D633" t="n">
-        <v>0.9255633187530575</v>
+        <v>0.1517330141105638</v>
       </c>
     </row>
     <row r="634">
@@ -9311,10 +9311,10 @@
         <v>113.763837072117</v>
       </c>
       <c r="C634" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D634" t="n">
-        <v>0.3401326940117583</v>
+        <v>0.01023159293628012</v>
       </c>
     </row>
     <row r="635">
@@ -9328,7 +9328,7 @@
         <v>1</v>
       </c>
       <c r="D635" t="n">
-        <v>0.8588731465514479</v>
+        <v>0.1132244694184806</v>
       </c>
     </row>
     <row r="636">
@@ -9339,10 +9339,10 @@
         <v>113.756615851938</v>
       </c>
       <c r="C636" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D636" t="n">
-        <v>0.2838204179360337</v>
+        <v>0.09023914182146801</v>
       </c>
     </row>
     <row r="637">
@@ -9353,10 +9353,10 @@
         <v>113.677415476473</v>
       </c>
       <c r="C637" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D637" t="n">
-        <v>0.3932189419032396</v>
+        <v>0.169682045786778</v>
       </c>
     </row>
     <row r="638">
@@ -9367,10 +9367,10 @@
         <v>114.006817471989</v>
       </c>
       <c r="C638" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D638" t="n">
-        <v>0.6948289212287606</v>
+        <v>0.2495021401883574</v>
       </c>
     </row>
     <row r="639">
@@ -9384,7 +9384,7 @@
         <v>1</v>
       </c>
       <c r="D639" t="n">
-        <v>1.090579576150315</v>
+        <v>0.1550606247372044</v>
       </c>
     </row>
     <row r="640">
@@ -9395,10 +9395,10 @@
         <v>114.154279241422</v>
       </c>
       <c r="C640" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D640" t="n">
-        <v>0.8616160475173147</v>
+        <v>0.3842833775181076</v>
       </c>
     </row>
     <row r="641">
@@ -9412,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="D641" t="n">
-        <v>1.163064394438778</v>
+        <v>0.1477747989679996</v>
       </c>
     </row>
     <row r="642">
@@ -9423,10 +9423,10 @@
         <v>114.17415507996</v>
       </c>
       <c r="C642" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D642" t="n">
-        <v>0.8935869597306737</v>
+        <v>0.4042159432646424</v>
       </c>
     </row>
     <row r="643">
@@ -9437,10 +9437,10 @@
         <v>113.856110740986</v>
       </c>
       <c r="C643" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D643" t="n">
-        <v>0.3939857346483463</v>
+        <v>0.11351037772704</v>
       </c>
     </row>
     <row r="644">
@@ -9451,10 +9451,10 @@
         <v>113.831151892824</v>
       </c>
       <c r="C644" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D644" t="n">
-        <v>0.3701496605348292</v>
+        <v>0.09120451614354311</v>
       </c>
     </row>
     <row r="645">
@@ -9465,10 +9465,10 @@
         <v>113.803077113899</v>
       </c>
       <c r="C645" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D645" t="n">
-        <v>0.3040981680601132</v>
+        <v>0.1449066897118486</v>
       </c>
     </row>
     <row r="646">
@@ -9479,10 +9479,10 @@
         <v>113.841660492557</v>
       </c>
       <c r="C646" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D646" t="n">
-        <v>0.3848503058626694</v>
+        <v>0.09472056286332635</v>
       </c>
     </row>
     <row r="647">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="D647" t="n">
-        <v>0.9962793064567286</v>
+        <v>0.2338681401184635</v>
       </c>
     </row>
     <row r="648">
@@ -9507,10 +9507,10 @@
         <v>113.834619040379</v>
       </c>
       <c r="C648" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D648" t="n">
-        <v>0.3550199063054482</v>
+        <v>0.1213364973075494</v>
       </c>
     </row>
     <row r="649">
@@ -9521,10 +9521,10 @@
         <v>113.848423024468</v>
       </c>
       <c r="C649" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D649" t="n">
-        <v>0.3891252426931788</v>
+        <v>0.1034142170428406</v>
       </c>
     </row>
     <row r="650">
@@ -9538,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="D650" t="n">
-        <v>0.9928114247833775</v>
+        <v>0.2334395966576192</v>
       </c>
     </row>
     <row r="651">
@@ -9549,10 +9549,10 @@
         <v>113.842256654806</v>
       </c>
       <c r="C651" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D651" t="n">
-        <v>0.3835895067132015</v>
+        <v>0.09734598964180345</v>
       </c>
     </row>
     <row r="652">
@@ -9563,10 +9563,10 @@
         <v>113.053125232022</v>
       </c>
       <c r="C652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D652" t="n">
-        <v>0.2679836945985463</v>
+        <v>0.2005133030420584</v>
       </c>
     </row>
     <row r="653">
@@ -9577,10 +9577,10 @@
         <v>113.017085872534</v>
       </c>
       <c r="C653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D653" t="n">
-        <v>0.184299326673564</v>
+        <v>0.1756282148747967</v>
       </c>
     </row>
     <row r="654">
@@ -9591,10 +9591,10 @@
         <v>113.187029876878</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D654" t="n">
-        <v>0.2296664081022074</v>
+        <v>0.1536818838666225</v>
       </c>
     </row>
     <row r="655">
@@ -9605,10 +9605,10 @@
         <v>113.218275910739</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D655" t="n">
-        <v>0.1915167608432324</v>
+        <v>0.1203791839516486</v>
       </c>
     </row>
     <row r="656">
@@ -9619,10 +9619,10 @@
         <v>113.22408782342</v>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D656" t="n">
-        <v>0.1662728270485319</v>
+        <v>0.09381790287980139</v>
       </c>
     </row>
     <row r="657">
@@ -9633,10 +9633,10 @@
         <v>113.246073168058</v>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D657" t="n">
-        <v>0.1250103808509933</v>
+        <v>0.06529500611687379</v>
       </c>
     </row>
     <row r="658">
@@ -9647,10 +9647,10 @@
         <v>113.055362279538</v>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D658" t="n">
-        <v>0.248192469815324</v>
+        <v>0.1843421251293688</v>
       </c>
     </row>
     <row r="659">
@@ -9661,10 +9661,10 @@
         <v>113.055362279538</v>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D659" t="n">
-        <v>0.248192469815324</v>
+        <v>0.1843421251293688</v>
       </c>
     </row>
     <row r="660">
@@ -9675,10 +9675,10 @@
         <v>113.168230689167</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D660" t="n">
-        <v>0.3827390872573136</v>
+        <v>0.2931819650803211</v>
       </c>
     </row>
     <row r="661">
@@ -9689,10 +9689,10 @@
         <v>113.085522754975</v>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D661" t="n">
-        <v>0.1372058473786129</v>
+        <v>0.1068936759767884</v>
       </c>
     </row>
     <row r="662">
@@ -9703,10 +9703,10 @@
         <v>113.252398406643</v>
       </c>
       <c r="C662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D662" t="n">
-        <v>0.2638111892356029</v>
+        <v>0.2074210018830979</v>
       </c>
     </row>
     <row r="663">
@@ -9717,10 +9717,10 @@
         <v>113.155094249377</v>
       </c>
       <c r="C663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D663" t="n">
-        <v>0.3736691471531087</v>
+        <v>0.2841690631484023</v>
       </c>
     </row>
     <row r="664">
@@ -9731,10 +9731,10 @@
         <v>113.267790531992</v>
       </c>
       <c r="C664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D664" t="n">
-        <v>0.2107103554696772</v>
+        <v>0.1634005700919145</v>
       </c>
     </row>
     <row r="665">
@@ -9745,10 +9745,10 @@
         <v>113.292417323319</v>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D665" t="n">
-        <v>0.2998939908557821</v>
+        <v>0.2547702411189248</v>
       </c>
     </row>
     <row r="666">
@@ -9759,10 +9759,10 @@
         <v>113.27797488925</v>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D666" t="n">
-        <v>0.2198809427309354</v>
+        <v>0.1773584554194268</v>
       </c>
     </row>
     <row r="667">
@@ -9773,10 +9773,10 @@
         <v>113.180925088087</v>
       </c>
       <c r="C667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D667" t="n">
-        <v>0.1777435810178964</v>
+        <v>0.09325078482046822</v>
       </c>
     </row>
     <row r="668">
@@ -9787,10 +9787,10 @@
         <v>113.218367086951</v>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D668" t="n">
-        <v>0.1543023156821247</v>
+        <v>0.07656559453120379</v>
       </c>
     </row>
     <row r="669">
@@ -9801,10 +9801,10 @@
         <v>113.138382886031</v>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D669" t="n">
-        <v>0.2261402148559908</v>
+        <v>0.1460015904489996</v>
       </c>
     </row>
     <row r="670">
@@ -9815,10 +9815,10 @@
         <v>113.053481894344</v>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D670" t="n">
-        <v>0.2680251902935228</v>
+        <v>0.2004344991485225</v>
       </c>
     </row>
     <row r="671">
@@ -9829,10 +9829,10 @@
         <v>113.241833078018</v>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D671" t="n">
-        <v>0.2458467444182433</v>
+        <v>0.1863484179516732</v>
       </c>
     </row>
     <row r="672">
@@ -9843,10 +9843,10 @@
         <v>113.217936898324</v>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D672" t="n">
-        <v>0.1936922954968016</v>
+        <v>0.1227071447096692</v>
       </c>
     </row>
     <row r="673">
@@ -9857,10 +9857,10 @@
         <v>113.2034172001</v>
       </c>
       <c r="C673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D673" t="n">
-        <v>0.08495807680070573</v>
+        <v>0.03826031035611968</v>
       </c>
     </row>
     <row r="674">
@@ -9871,10 +9871,10 @@
         <v>113.256555405219</v>
       </c>
       <c r="C674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D674" t="n">
-        <v>0.2156360663884975</v>
+        <v>0.1626869492150798</v>
       </c>
     </row>
     <row r="675">
@@ -9885,10 +9885,10 @@
         <v>113.013931250855</v>
       </c>
       <c r="C675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D675" t="n">
-        <v>0.1138376408738335</v>
+        <v>0.2183332143012736</v>
       </c>
     </row>
     <row r="676">
@@ -9899,10 +9899,10 @@
         <v>113.211687200944</v>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D676" t="n">
-        <v>0.05287670399623618</v>
+        <v>0.1008375101456398</v>
       </c>
     </row>
     <row r="677">
@@ -9913,10 +9913,10 @@
         <v>113.275591790733</v>
       </c>
       <c r="C677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D677" t="n">
-        <v>0.2602309502614975</v>
+        <v>0.2133567408103159</v>
       </c>
     </row>
     <row r="678">
@@ -9927,10 +9927,10 @@
         <v>113.105092598317</v>
       </c>
       <c r="C678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D678" t="n">
-        <v>0.06453512839215256</v>
+        <v>0.168448150891226</v>
       </c>
     </row>
     <row r="679">
@@ -9941,10 +9941,10 @@
         <v>113.263175388622</v>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D679" t="n">
-        <v>0.225786396184666</v>
+        <v>0.1757139136221261</v>
       </c>
     </row>
     <row r="680">
@@ -9955,10 +9955,10 @@
         <v>113.26544497456</v>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D680" t="n">
-        <v>0.2194278515473662</v>
+        <v>0.1706546850066974</v>
       </c>
     </row>
     <row r="681">
@@ -9969,10 +9969,10 @@
         <v>113.241833078018</v>
       </c>
       <c r="C681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D681" t="n">
-        <v>0.2458467444182433</v>
+        <v>0.1863484179516732</v>
       </c>
     </row>
     <row r="682">
@@ -9983,10 +9983,10 @@
         <v>113.252832115729</v>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D682" t="n">
-        <v>0.2265927678024767</v>
+        <v>0.1718424165273611</v>
       </c>
     </row>
     <row r="683">
@@ -9997,10 +9997,10 @@
         <v>113.728878210665</v>
       </c>
       <c r="C683" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D683" t="n">
-        <v>0.4363122176671475</v>
+        <v>0.1490229232066051</v>
       </c>
     </row>
     <row r="684">
@@ -10011,10 +10011,10 @@
         <v>113.625675911473</v>
       </c>
       <c r="C684" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D684" t="n">
-        <v>0.2713694678561214</v>
+        <v>0.1520270064661901</v>
       </c>
     </row>
     <row r="685">
@@ -10025,10 +10025,10 @@
         <v>113.864423907207</v>
       </c>
       <c r="C685" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D685" t="n">
-        <v>0.3693538574115699</v>
+        <v>0.1715158448915171</v>
       </c>
     </row>
     <row r="686">
@@ -10039,10 +10039,10 @@
         <v>113.14167326952</v>
       </c>
       <c r="C686" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D686" t="n">
-        <v>0.02712323662908006</v>
+        <v>0.1658354921003236</v>
       </c>
     </row>
     <row r="687">
@@ -10053,10 +10053,10 @@
         <v>113.738957680873</v>
       </c>
       <c r="C687" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D687" t="n">
-        <v>0.4584968264465623</v>
+        <v>0.1594994315294639</v>
       </c>
     </row>
     <row r="688">
@@ -10067,10 +10067,10 @@
         <v>113.08571823344</v>
       </c>
       <c r="C688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D688" t="n">
-        <v>0.05097446032019858</v>
+        <v>0.2240674629281793</v>
       </c>
     </row>
     <row r="689">
@@ -10081,10 +10081,10 @@
         <v>113.013931250855</v>
       </c>
       <c r="C689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D689" t="n">
-        <v>0.1138376408738335</v>
+        <v>0.2183332143012736</v>
       </c>
     </row>
     <row r="690">
@@ -10095,10 +10095,10 @@
         <v>113.106826651341</v>
       </c>
       <c r="C690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D690" t="n">
-        <v>0.0624094942240734</v>
+        <v>0.171365039529769</v>
       </c>
     </row>
     <row r="691">
@@ -10109,10 +10109,10 @@
         <v>113.107472443172</v>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D691" t="n">
-        <v>0.1108402309823214</v>
+        <v>0.0928235959748316</v>
       </c>
     </row>
     <row r="692">
@@ -10123,10 +10123,10 @@
         <v>113.215226958534</v>
       </c>
       <c r="C692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D692" t="n">
-        <v>0.08493508222298232</v>
+        <v>0.04026346997049551</v>
       </c>
     </row>
     <row r="693">
@@ -10137,10 +10137,10 @@
         <v>113.711024992321</v>
       </c>
       <c r="C693" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D693" t="n">
-        <v>0.2351286544666255</v>
+        <v>0.1213656832537675</v>
       </c>
     </row>
     <row r="694">
@@ -10151,10 +10151,10 @@
         <v>113.985753238143</v>
       </c>
       <c r="C694" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D694" t="n">
-        <v>0.5978369681337566</v>
+        <v>0.2158759941399959</v>
       </c>
     </row>
     <row r="695">
@@ -10168,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="D695" t="n">
-        <v>0.9677976873062819</v>
+        <v>0.2026432799705596</v>
       </c>
     </row>
     <row r="696">
@@ -10179,10 +10179,10 @@
         <v>113.806949257104</v>
       </c>
       <c r="C696" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D696" t="n">
-        <v>0.3441205895929768</v>
+        <v>0.07809000683871931</v>
       </c>
     </row>
     <row r="697">
@@ -10193,10 +10193,10 @@
         <v>113.107355157709</v>
       </c>
       <c r="C697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D697" t="n">
-        <v>0.09832903636184115</v>
+        <v>0.1049600818612726</v>
       </c>
     </row>
     <row r="698">
@@ -10207,10 +10207,10 @@
         <v>113.663224470031</v>
       </c>
       <c r="C698" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D698" t="n">
-        <v>0.2886887548205401</v>
+        <v>0.1128368122390848</v>
       </c>
     </row>
     <row r="699">
@@ -10221,10 +10221,10 @@
         <v>113.677128266642</v>
       </c>
       <c r="C699" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D699" t="n">
-        <v>0.284116797486359</v>
+        <v>0.09438526318424537</v>
       </c>
     </row>
     <row r="700">
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="D700" t="n">
-        <v>0.9970356445980078</v>
+        <v>0.2343643736010363</v>
       </c>
     </row>
     <row r="701">
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="D701" t="n">
-        <v>0.8675210376946829</v>
+        <v>0.1279636951833697</v>
       </c>
     </row>
     <row r="702">
@@ -10263,10 +10263,10 @@
         <v>114.014809217311</v>
       </c>
       <c r="C702" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D702" t="n">
-        <v>0.6768346588291079</v>
+        <v>0.2485642437027681</v>
       </c>
     </row>
     <row r="703">
@@ -10277,10 +10277,10 @@
         <v>113.87562020652</v>
       </c>
       <c r="C703" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D703" t="n">
-        <v>0.3919149267252403</v>
+        <v>0.1609173940527594</v>
       </c>
     </row>
     <row r="704">
@@ -10294,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="D704" t="n">
-        <v>0.9412968113206515</v>
+        <v>0.1518291543602236</v>
       </c>
     </row>
     <row r="705">
@@ -10305,10 +10305,10 @@
         <v>113.824963965626</v>
       </c>
       <c r="C705" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D705" t="n">
-        <v>0.323939803247003</v>
+        <v>0.1578543822743123</v>
       </c>
     </row>
     <row r="706">
@@ -10319,10 +10319,10 @@
         <v>113.668795077192</v>
       </c>
       <c r="C706" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D706" t="n">
-        <v>0.3222562757002972</v>
+        <v>0.1244588770801985</v>
       </c>
     </row>
     <row r="707">
@@ -10333,10 +10333,10 @@
         <v>113.682687043119</v>
       </c>
       <c r="C707" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D707" t="n">
-        <v>0.3930906622880772</v>
+        <v>0.163266754361407</v>
       </c>
     </row>
     <row r="708">
@@ -10347,10 +10347,10 @@
         <v>113.976730290197</v>
       </c>
       <c r="C708" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D708" t="n">
-        <v>0.5517945485660768</v>
+        <v>0.2153557432564416</v>
       </c>
     </row>
     <row r="709">
@@ -10361,10 +10361,10 @@
         <v>113.983753398078</v>
       </c>
       <c r="C709" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D709" t="n">
-        <v>0.699579433871258</v>
+        <v>0.2448607035664086</v>
       </c>
     </row>
     <row r="710">
@@ -10375,10 +10375,10 @@
         <v>113.721548430265</v>
       </c>
       <c r="C710" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D710" t="n">
-        <v>0.446070670127368</v>
+        <v>0.1663422582566966</v>
       </c>
     </row>
     <row r="711">
@@ -10389,10 +10389,10 @@
         <v>113.660367638426</v>
       </c>
       <c r="C711" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D711" t="n">
-        <v>0.1802629408862713</v>
+        <v>0.1769740545371965</v>
       </c>
     </row>
     <row r="712">
@@ -10403,10 +10403,10 @@
         <v>113.67932364446</v>
       </c>
       <c r="C712" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D712" t="n">
-        <v>0.3929221619203569</v>
+        <v>0.1671532030450247</v>
       </c>
     </row>
     <row r="713">
@@ -10417,10 +10417,10 @@
         <v>113.950923237718</v>
       </c>
       <c r="C713" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D713" t="n">
-        <v>0.5298456115343262</v>
+        <v>0.1852122086730356</v>
       </c>
     </row>
     <row r="714">
@@ -10434,7 +10434,7 @@
         <v>1</v>
       </c>
       <c r="D714" t="n">
-        <v>1.048212833894931</v>
+        <v>0.1390186827350328</v>
       </c>
     </row>
     <row r="715">
@@ -10445,10 +10445,10 @@
         <v>113.706687858337</v>
       </c>
       <c r="C715" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D715" t="n">
-        <v>0.3971885528564831</v>
+        <v>0.1377766212994531</v>
       </c>
     </row>
     <row r="716">
@@ -10462,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="D716" t="n">
-        <v>1.148853437221884</v>
+        <v>0.1443233394839051</v>
       </c>
     </row>
     <row r="717">
@@ -10473,10 +10473,10 @@
         <v>113.734764672822</v>
       </c>
       <c r="C717" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D717" t="n">
-        <v>0.4303171277451166</v>
+        <v>0.1365381448728308</v>
       </c>
     </row>
     <row r="718">
@@ -10487,10 +10487,10 @@
         <v>114.103597283837</v>
       </c>
       <c r="C718" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D718" t="n">
-        <v>0.7388756086559244</v>
+        <v>0.3396604022700819</v>
       </c>
     </row>
     <row r="719">
@@ -10504,7 +10504,7 @@
         <v>1</v>
       </c>
       <c r="D719" t="n">
-        <v>1.035046549663769</v>
+        <v>0.1382494287717817</v>
       </c>
     </row>
     <row r="720">
@@ -10515,10 +10515,10 @@
         <v>113.675043962504</v>
       </c>
       <c r="C720" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D720" t="n">
-        <v>0.3373967539623411</v>
+        <v>0.1270931601188654</v>
       </c>
     </row>
     <row r="721">
@@ -10532,7 +10532,7 @@
         <v>1</v>
       </c>
       <c r="D721" t="n">
-        <v>1.298720505786995</v>
+        <v>0.2518292982539928</v>
       </c>
     </row>
     <row r="722">
@@ -10543,10 +10543,10 @@
         <v>113.87562020652</v>
       </c>
       <c r="C722" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D722" t="n">
-        <v>0.3919149267252403</v>
+        <v>0.1609173940527594</v>
       </c>
     </row>
     <row r="723">
@@ -10557,10 +10557,10 @@
         <v>114.154279241422</v>
       </c>
       <c r="C723" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D723" t="n">
-        <v>0.8616160475173147</v>
+        <v>0.3842833775181076</v>
       </c>
     </row>
     <row r="724">
@@ -10574,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="D724" t="n">
-        <v>0.8996503572471005</v>
+        <v>0.1962526979051707</v>
       </c>
     </row>
     <row r="725">
@@ -10585,10 +10585,10 @@
         <v>113.950584289981</v>
       </c>
       <c r="C725" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D725" t="n">
-        <v>0.5671394564330036</v>
+        <v>0.1812186949232611</v>
       </c>
     </row>
     <row r="726">
@@ -10599,10 +10599,10 @@
         <v>113.938165520835</v>
       </c>
       <c r="C726" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D726" t="n">
-        <v>0.5102426635498598</v>
+        <v>0.1739478420080319</v>
       </c>
     </row>
     <row r="727">
@@ -10613,10 +10613,10 @@
         <v>113.22103719857</v>
       </c>
       <c r="C727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D727" t="n">
-        <v>0.1873451805642053</v>
+        <v>0.1167576205728823</v>
       </c>
     </row>
     <row r="728">
@@ -10627,10 +10627,10 @@
         <v>113.262949835787</v>
       </c>
       <c r="C728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D728" t="n">
-        <v>0.3021387764502177</v>
+        <v>0.2457671227817394</v>
       </c>
     </row>
     <row r="729">
@@ -10641,10 +10641,10 @@
         <v>113.258954240253</v>
       </c>
       <c r="C729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D729" t="n">
-        <v>0.1867904005230314</v>
+        <v>0.1349989591678993</v>
       </c>
     </row>
     <row r="730">
@@ -10655,10 +10655,10 @@
         <v>113.258879341336</v>
       </c>
       <c r="C730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D730" t="n">
-        <v>0.2233657335707903</v>
+        <v>0.1713788012552866</v>
       </c>
     </row>
     <row r="731">
@@ -10669,10 +10669,10 @@
         <v>113.267032816684</v>
       </c>
       <c r="C731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D731" t="n">
-        <v>0.1334944982052301</v>
+        <v>0.09055790974099878</v>
       </c>
     </row>
     <row r="732">
@@ -10683,10 +10683,10 @@
         <v>113.161417171232</v>
       </c>
       <c r="C732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D732" t="n">
-        <v>0.3828173648313548</v>
+        <v>0.2924270701263917</v>
       </c>
     </row>
     <row r="733">
@@ -10697,10 +10697,10 @@
         <v>113.163389144961</v>
       </c>
       <c r="C733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D733" t="n">
-        <v>0.02954592209285155</v>
+        <v>0.1554374574891978</v>
       </c>
     </row>
     <row r="734">
@@ -10711,10 +10711,10 @@
         <v>113.291565936306</v>
       </c>
       <c r="C734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D734" t="n">
-        <v>0.2829450477312526</v>
+        <v>0.2400591207895076</v>
       </c>
     </row>
     <row r="735">
@@ -10725,10 +10725,10 @@
         <v>113.023625339017</v>
       </c>
       <c r="C735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D735" t="n">
-        <v>0.07644597652572552</v>
+        <v>0.2836563527341867</v>
       </c>
     </row>
     <row r="736">
@@ -10739,10 +10739,10 @@
         <v>113.768942907685</v>
       </c>
       <c r="C736" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D736" t="n">
-        <v>0.3329040422701329</v>
+        <v>0.02602654753923084</v>
       </c>
     </row>
     <row r="737">
@@ -10753,10 +10753,10 @@
         <v>113.184764535666</v>
       </c>
       <c r="C737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D737" t="n">
-        <v>0.06045010087625532</v>
+        <v>0.09372648467617352</v>
       </c>
     </row>
     <row r="738">
@@ -10767,10 +10767,10 @@
         <v>113.183697797873</v>
       </c>
       <c r="C738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D738" t="n">
-        <v>0.05724449129682464</v>
+        <v>0.1017521888536204</v>
       </c>
     </row>
     <row r="739">
@@ -10781,10 +10781,10 @@
         <v>113.67932364446</v>
       </c>
       <c r="C739" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D739" t="n">
-        <v>0.3929221619203569</v>
+        <v>0.1671532030450247</v>
       </c>
     </row>
     <row r="740">
@@ -10795,10 +10795,10 @@
         <v>113.88973869186</v>
       </c>
       <c r="C740" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D740" t="n">
-        <v>0.4604019350319569</v>
+        <v>0.1230853326321759</v>
       </c>
     </row>
     <row r="741">
@@ -10809,10 +10809,10 @@
         <v>113.676795108485</v>
       </c>
       <c r="C741" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D741" t="n">
-        <v>0.286108939956677</v>
+        <v>0.0952914639580504</v>
       </c>
     </row>
     <row r="742">
@@ -10826,7 +10826,7 @@
         <v>1</v>
       </c>
       <c r="D742" t="n">
-        <v>0.8754423767860491</v>
+        <v>0.1888836447872023</v>
       </c>
     </row>
     <row r="743">
@@ -10837,10 +10837,10 @@
         <v>112.92484586407</v>
       </c>
       <c r="C743" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D743" t="n">
-        <v>0.145611471315105</v>
+        <v>0.3847367137893173</v>
       </c>
     </row>
     <row r="744">
@@ -10851,10 +10851,10 @@
         <v>113.791300864956</v>
       </c>
       <c r="C744" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D744" t="n">
-        <v>0.3315449463823031</v>
+        <v>0.06671824553312407</v>
       </c>
     </row>
     <row r="745">
@@ -10865,10 +10865,10 @@
         <v>113.67932364446</v>
       </c>
       <c r="C745" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D745" t="n">
-        <v>0.3929221619203569</v>
+        <v>0.1671532030450247</v>
       </c>
     </row>
     <row r="746">
@@ -10879,10 +10879,10 @@
         <v>113.657281174779</v>
       </c>
       <c r="C746" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D746" t="n">
-        <v>0.1796476154453507</v>
+        <v>0.1760027497505654</v>
       </c>
     </row>
     <row r="747">
@@ -10893,10 +10893,10 @@
         <v>113.919336448962</v>
       </c>
       <c r="C747" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D747" t="n">
-        <v>0.5093630243928409</v>
+        <v>0.149613082546669</v>
       </c>
     </row>
     <row r="748">
@@ -10907,10 +10907,10 @@
         <v>113.995516745558</v>
       </c>
       <c r="C748" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D748" t="n">
-        <v>0.5731691176645158</v>
+        <v>0.2356280801757851</v>
       </c>
     </row>
     <row r="749">
@@ -10921,10 +10921,10 @@
         <v>113.88363678999</v>
       </c>
       <c r="C749" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D749" t="n">
-        <v>0.3861613346249117</v>
+        <v>0.1934235180342293</v>
       </c>
     </row>
     <row r="750">
@@ -10935,10 +10935,10 @@
         <v>113.806716820553</v>
       </c>
       <c r="C750" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D750" t="n">
-        <v>0.5093149431805959</v>
+        <v>0.1472079384455627</v>
       </c>
     </row>
     <row r="751">
@@ -10949,10 +10949,10 @@
         <v>113.678640867595</v>
       </c>
       <c r="C751" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D751" t="n">
-        <v>0.2718126157348355</v>
+        <v>0.09139978030293665</v>
       </c>
     </row>
     <row r="752">
@@ -10963,10 +10963,10 @@
         <v>113.771058201567</v>
       </c>
       <c r="C752" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D752" t="n">
-        <v>0.2905235974644096</v>
+        <v>0.1024897732419493</v>
       </c>
     </row>
     <row r="753">
@@ -10977,10 +10977,10 @@
         <v>113.747257394969</v>
       </c>
       <c r="C753" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D753" t="n">
-        <v>0.4703731098030036</v>
+        <v>0.1623670869335335</v>
       </c>
     </row>
     <row r="754">
@@ -10991,10 +10991,10 @@
         <v>113.874114264706</v>
       </c>
       <c r="C754" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D754" t="n">
-        <v>0.3922017704538283</v>
+        <v>0.1566747545945801</v>
       </c>
     </row>
     <row r="755">
@@ -11005,10 +11005,10 @@
         <v>113.587232366643</v>
       </c>
       <c r="C755" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D755" t="n">
-        <v>0.1510222139885942</v>
+        <v>0.207768379070347</v>
       </c>
     </row>
     <row r="756">
@@ -11019,10 +11019,10 @@
         <v>113.012003662401</v>
       </c>
       <c r="C756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D756" t="n">
-        <v>0.115377101645033</v>
+        <v>0.2192189667554738</v>
       </c>
     </row>
     <row r="757">
@@ -11033,10 +11033,10 @@
         <v>113.73183708259</v>
       </c>
       <c r="C757" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D757" t="n">
-        <v>0.2658147562510832</v>
+        <v>0.08981372411522827</v>
       </c>
     </row>
     <row r="758">
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="D758" t="n">
-        <v>0.9059355894743807</v>
+        <v>0.1663240050603346</v>
       </c>
     </row>
     <row r="759">
@@ -11061,10 +11061,10 @@
         <v>113.81981570219</v>
       </c>
       <c r="C759" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D759" t="n">
-        <v>0.3201874532605088</v>
+        <v>0.1523188810592567</v>
       </c>
     </row>
     <row r="760">
@@ -11075,10 +11075,10 @@
         <v>113.741403919488</v>
       </c>
       <c r="C760" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D760" t="n">
-        <v>0.2676966493347064</v>
+        <v>0.09788326995950937</v>
       </c>
     </row>
     <row r="761">
@@ -11089,10 +11089,10 @@
         <v>113.663448043001</v>
       </c>
       <c r="C761" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D761" t="n">
-        <v>0.2028202403939504</v>
+        <v>0.1434947559799687</v>
       </c>
     </row>
     <row r="762">
@@ -11103,10 +11103,10 @@
         <v>113.807775788003</v>
       </c>
       <c r="C762" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D762" t="n">
-        <v>0.3380219717468733</v>
+        <v>0.08958037317849842</v>
       </c>
     </row>
     <row r="763">
@@ -11117,10 +11117,10 @@
         <v>113.881268016751</v>
       </c>
       <c r="C763" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D763" t="n">
-        <v>0.4414250581680499</v>
+        <v>0.1191444535040527</v>
       </c>
     </row>
     <row r="764">
@@ -11131,10 +11131,10 @@
         <v>113.738185622321</v>
       </c>
       <c r="C764" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D764" t="n">
-        <v>0.290877933909373</v>
+        <v>0.05736201779506316</v>
       </c>
     </row>
     <row r="765">
@@ -11145,10 +11145,10 @@
         <v>113.887040884362</v>
       </c>
       <c r="C765" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D765" t="n">
-        <v>0.4934115455811623</v>
+        <v>0.1192394000497028</v>
       </c>
     </row>
     <row r="766">
@@ -11159,10 +11159,10 @@
         <v>113.715671602434</v>
       </c>
       <c r="C766" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D766" t="n">
-        <v>0.2473937646230559</v>
+        <v>0.1049174983848045</v>
       </c>
     </row>
     <row r="767">
@@ -11173,10 +11173,10 @@
         <v>113.728526388413</v>
       </c>
       <c r="C767" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D767" t="n">
-        <v>0.2422710626877597</v>
+        <v>0.129019422790103</v>
       </c>
     </row>
     <row r="768">
@@ -11187,10 +11187,10 @@
         <v>113.754890746037</v>
       </c>
       <c r="C768" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D768" t="n">
-        <v>0.2801000744517109</v>
+        <v>0.0945018104119361</v>
       </c>
     </row>
     <row r="769">
@@ -11201,10 +11201,10 @@
         <v>114.024871476885</v>
       </c>
       <c r="C769" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D769" t="n">
-        <v>0.6923893443399523</v>
+        <v>0.2586833696536583</v>
       </c>
     </row>
     <row r="770">
@@ -11215,10 +11215,10 @@
         <v>113.746607957814</v>
       </c>
       <c r="C770" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D770" t="n">
-        <v>0.288093989733318</v>
+        <v>0.06912551043741165</v>
       </c>
     </row>
     <row r="771">
@@ -11229,10 +11229,10 @@
         <v>114.023446723923</v>
       </c>
       <c r="C771" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D771" t="n">
-        <v>0.5899255638176075</v>
+        <v>0.2771617471415994</v>
       </c>
     </row>
     <row r="772">
@@ -11243,10 +11243,10 @@
         <v>113.950534371144</v>
       </c>
       <c r="C772" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D772" t="n">
-        <v>0.4827867828827558</v>
+        <v>0.2197437255476859</v>
       </c>
     </row>
     <row r="773">
@@ -11257,10 +11257,10 @@
         <v>113.111198007171</v>
       </c>
       <c r="C773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D773" t="n">
-        <v>0.06488880129889611</v>
+        <v>0.1587904740853046</v>
       </c>
     </row>
     <row r="774">
@@ -11271,10 +11271,10 @@
         <v>114.02085788919</v>
       </c>
       <c r="C774" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D774" t="n">
-        <v>0.6346978809529495</v>
+        <v>0.252287651130537</v>
       </c>
     </row>
     <row r="775">
@@ -11285,10 +11285,10 @@
         <v>112.92608125962</v>
       </c>
       <c r="C775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D775" t="n">
-        <v>0.2099153342335809</v>
+        <v>0.2692266287167944</v>
       </c>
     </row>
     <row r="776">
@@ -11299,10 +11299,10 @@
         <v>112.922148208607</v>
       </c>
       <c r="C776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D776" t="n">
-        <v>0.2034748447718558</v>
+        <v>0.2763485357558832</v>
       </c>
     </row>
     <row r="777">
@@ -11313,10 +11313,10 @@
         <v>113.945322628052</v>
       </c>
       <c r="C777" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D777" t="n">
-        <v>0.5638729701921076</v>
+        <v>0.1764669360663166</v>
       </c>
     </row>
     <row r="778">
@@ -11327,10 +11327,10 @@
         <v>113.762143365587</v>
       </c>
       <c r="C778" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D778" t="n">
-        <v>0.3207917244233783</v>
+        <v>0.03569111220199197</v>
       </c>
     </row>
     <row r="779">
@@ -11341,10 +11341,10 @@
         <v>113.84836931568</v>
       </c>
       <c r="C779" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D779" t="n">
-        <v>0.4684310329730328</v>
+        <v>0.09173597366673043</v>
       </c>
     </row>
     <row r="780">
@@ -11355,10 +11355,10 @@
         <v>113.730314028056</v>
       </c>
       <c r="C780" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D780" t="n">
-        <v>0.3069566024603676</v>
+        <v>0.04156071890492129</v>
       </c>
     </row>
     <row r="781">
@@ -11369,10 +11369,10 @@
         <v>112.929911359432</v>
       </c>
       <c r="C781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D781" t="n">
-        <v>0.1740950573252316</v>
+        <v>0.2846224537997494</v>
       </c>
     </row>
     <row r="782">
@@ -11383,10 +11383,10 @@
         <v>113.164835494985</v>
       </c>
       <c r="C782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D782" t="n">
-        <v>0.05367232280903787</v>
+        <v>0.1245117944444423</v>
       </c>
     </row>
     <row r="783">
@@ -11397,10 +11397,10 @@
         <v>113.743130759118</v>
       </c>
       <c r="C783" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D783" t="n">
-        <v>0.2669296854633275</v>
+        <v>0.1016981576103902</v>
       </c>
     </row>
     <row r="784">
@@ -11411,10 +11411,10 @@
         <v>113.025536318701</v>
       </c>
       <c r="C784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D784" t="n">
-        <v>0.1335877575005865</v>
+        <v>0.1792114920609404</v>
       </c>
     </row>
     <row r="785">
@@ -11425,10 +11425,10 @@
         <v>113.752357670924</v>
       </c>
       <c r="C785" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D785" t="n">
-        <v>0.2572051228811017</v>
+        <v>0.1373249431875926</v>
       </c>
     </row>
     <row r="786">
@@ -11439,10 +11439,10 @@
         <v>113.185160535684</v>
       </c>
       <c r="C786" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D786" t="n">
-        <v>0.0255839528661533</v>
+        <v>0.138060542781433</v>
       </c>
     </row>
     <row r="787">
@@ -11453,10 +11453,10 @@
         <v>113.182621538042</v>
       </c>
       <c r="C787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D787" t="n">
-        <v>0.06183569512510122</v>
+        <v>0.09187084975423832</v>
       </c>
     </row>
     <row r="788">
@@ -11467,10 +11467,10 @@
         <v>113.089087363288</v>
       </c>
       <c r="C788" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D788" t="n">
-        <v>0.04921861471942575</v>
+        <v>0.2204243507241331</v>
       </c>
     </row>
     <row r="789">
@@ -11481,10 +11481,10 @@
         <v>113.062378415671</v>
       </c>
       <c r="C789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D789" t="n">
-        <v>0.1177900724292656</v>
+        <v>0.1432534030725664</v>
       </c>
     </row>
     <row r="790">
@@ -11495,10 +11495,10 @@
         <v>113.105684107343</v>
       </c>
       <c r="C790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D790" t="n">
-        <v>0.09978536919362939</v>
+        <v>0.1053685636241355</v>
       </c>
     </row>
     <row r="791">
@@ -11509,10 +11509,10 @@
         <v>113.180840492262</v>
       </c>
       <c r="C791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D791" t="n">
-        <v>0.05529480741981353</v>
+        <v>0.1081954615009173</v>
       </c>
     </row>
     <row r="792">
@@ -11523,10 +11523,10 @@
         <v>113.082718812903</v>
       </c>
       <c r="C792" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D792" t="n">
-        <v>0.05233118544807365</v>
+        <v>0.2271155790758908</v>
       </c>
     </row>
     <row r="793">
@@ -11537,10 +11537,10 @@
         <v>112.930563684639</v>
       </c>
       <c r="C793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D793" t="n">
-        <v>0.1727090448124657</v>
+        <v>0.284908962527153</v>
       </c>
     </row>
     <row r="794">
@@ -11551,10 +11551,10 @@
         <v>113.116939915803</v>
       </c>
       <c r="C794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D794" t="n">
-        <v>0.07165747462023572</v>
+        <v>0.1358710681909555</v>
       </c>
     </row>
     <row r="795">
@@ -11565,10 +11565,10 @@
         <v>113.287397853538</v>
       </c>
       <c r="C795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D795" t="n">
-        <v>0.2631718880763451</v>
+        <v>0.2211083874624712</v>
       </c>
     </row>
     <row r="796">
@@ -11579,10 +11579,10 @@
         <v>112.921689887746</v>
       </c>
       <c r="C796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D796" t="n">
-        <v>0.2042998966315044</v>
+        <v>0.2765960945499135</v>
       </c>
     </row>
     <row r="797">
@@ -11593,10 +11593,10 @@
         <v>113.109264614765</v>
       </c>
       <c r="C797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D797" t="n">
-        <v>0.0616427700008192</v>
+        <v>0.1697866157715937</v>
       </c>
     </row>
     <row r="798">
@@ -11607,10 +11607,10 @@
         <v>113.130968681083</v>
       </c>
       <c r="C798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D798" t="n">
-        <v>0.06873824069936432</v>
+        <v>0.1246008208920623</v>
       </c>
     </row>
     <row r="799">
@@ -11621,10 +11621,10 @@
         <v>113.057277936699</v>
       </c>
       <c r="C799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D799" t="n">
-        <v>0.1190433717700076</v>
+        <v>0.1488345611996154</v>
       </c>
     </row>
     <row r="800">
@@ -11635,10 +11635,10 @@
         <v>113.899085229213</v>
       </c>
       <c r="C800" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D800" t="n">
-        <v>0.5094995127587443</v>
+        <v>0.1314836665474695</v>
       </c>
     </row>
     <row r="801">
@@ -11649,10 +11649,10 @@
         <v>113.861314181041</v>
       </c>
       <c r="C801" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D801" t="n">
-        <v>0.3615632745562867</v>
+        <v>0.1786169260758976</v>
       </c>
     </row>
     <row r="802">
@@ -11663,10 +11663,10 @@
         <v>113.847587430565</v>
       </c>
       <c r="C802" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D802" t="n">
-        <v>0.4729274973110771</v>
+        <v>0.09470106687608026</v>
       </c>
     </row>
     <row r="803">
@@ -11677,10 +11677,10 @@
         <v>114.074039829211</v>
       </c>
       <c r="C803" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D803" t="n">
-        <v>0.7721945408869754</v>
+        <v>0.308315383243365</v>
       </c>
     </row>
     <row r="804">
@@ -11691,10 +11691,10 @@
         <v>113.836965417065</v>
       </c>
       <c r="C804" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D804" t="n">
-        <v>0.3345297369923171</v>
+        <v>0.1675482463573028</v>
       </c>
     </row>
     <row r="805">
@@ -11705,10 +11705,10 @@
         <v>113.773177736349</v>
       </c>
       <c r="C805" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D805" t="n">
-        <v>0.3054653138929527</v>
+        <v>0.07810206588934464</v>
       </c>
     </row>
     <row r="806">
@@ -11722,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="D806" t="n">
-        <v>0.9675065856151336</v>
+        <v>0.2274236943557936</v>
       </c>
     </row>
     <row r="807">
@@ -11733,10 +11733,10 @@
         <v>113.116939915803</v>
       </c>
       <c r="C807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D807" t="n">
-        <v>0.07165747462023572</v>
+        <v>0.1358710681909555</v>
       </c>
     </row>
     <row r="808">
@@ -11747,10 +11747,10 @@
         <v>113.139840112737</v>
       </c>
       <c r="C808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D808" t="n">
-        <v>0.2277890578323381</v>
+        <v>0.1476514551032037</v>
       </c>
     </row>
     <row r="809">
@@ -11761,10 +11761,10 @@
         <v>113.090602899005</v>
       </c>
       <c r="C809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D809" t="n">
-        <v>0.1635650170167316</v>
+        <v>0.1076703369361208</v>
       </c>
     </row>
     <row r="810">
@@ -11775,10 +11775,10 @@
         <v>113.089718547773</v>
       </c>
       <c r="C810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D810" t="n">
-        <v>0.1654524795789482</v>
+        <v>0.109242885408915</v>
       </c>
     </row>
     <row r="811">
@@ -11789,10 +11789,10 @@
         <v>113.08996379955</v>
       </c>
       <c r="C811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D811" t="n">
-        <v>0.1691071539655247</v>
+        <v>0.1109723392274926</v>
       </c>
     </row>
     <row r="812">
@@ -11803,10 +11803,10 @@
         <v>113.081987000235</v>
       </c>
       <c r="C812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D812" t="n">
-        <v>0.2265416396057355</v>
+        <v>0.1574026106292564</v>
       </c>
     </row>
     <row r="813">
@@ -11817,10 +11817,10 @@
         <v>113.12539121536</v>
       </c>
       <c r="C813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D813" t="n">
-        <v>0.06974035016793548</v>
+        <v>0.1292212346431976</v>
       </c>
     </row>
     <row r="814">
@@ -11831,10 +11831,10 @@
         <v>113.095785867576</v>
       </c>
       <c r="C814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D814" t="n">
-        <v>0.1629407628015028</v>
+        <v>0.1035430851675475</v>
       </c>
     </row>
     <row r="815">
@@ -11845,10 +11845,10 @@
         <v>113.107183817611</v>
       </c>
       <c r="C815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D815" t="n">
-        <v>0.1611576216336923</v>
+        <v>0.09460067670579861</v>
       </c>
     </row>
     <row r="816">
@@ -11859,10 +11859,10 @@
         <v>113.05707444984</v>
       </c>
       <c r="C816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D816" t="n">
-        <v>0.1198336529926296</v>
+        <v>0.1484408675917002</v>
       </c>
     </row>
     <row r="817">
@@ -11873,10 +11873,10 @@
         <v>113.092568377088</v>
       </c>
       <c r="C817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D817" t="n">
-        <v>0.1634486353945978</v>
+        <v>0.1061525207229954</v>
       </c>
     </row>
     <row r="818">
@@ -11887,10 +11887,10 @@
         <v>113.085642361659</v>
       </c>
       <c r="C818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D818" t="n">
-        <v>0.1372493844683621</v>
+        <v>0.106763550380313</v>
       </c>
     </row>
     <row r="819">
@@ -11901,10 +11901,10 @@
         <v>113.164103868266</v>
       </c>
       <c r="C819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D819" t="n">
-        <v>0.2933843697824631</v>
+        <v>0.2141293197035833</v>
       </c>
     </row>
     <row r="820">
@@ -11915,10 +11915,10 @@
         <v>113.088398158149</v>
       </c>
       <c r="C820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D820" t="n">
-        <v>0.1174240047259746</v>
+        <v>0.1110860468829831</v>
       </c>
     </row>
     <row r="821">
@@ -11929,10 +11929,10 @@
         <v>113.097867107594</v>
       </c>
       <c r="C821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D821" t="n">
-        <v>0.1593424720012859</v>
+        <v>0.1001953505409687</v>
       </c>
     </row>
     <row r="822">
@@ -11943,10 +11943,10 @@
         <v>113.140925647573</v>
       </c>
       <c r="C822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D822" t="n">
-        <v>0.126621490894958</v>
+        <v>0.05176980705813589</v>
       </c>
     </row>
     <row r="823">
@@ -11957,10 +11957,10 @@
         <v>113.016650621057</v>
       </c>
       <c r="C823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D823" t="n">
-        <v>0.1905707240653139</v>
+        <v>0.177022906585223</v>
       </c>
     </row>
     <row r="824">
@@ -11971,10 +11971,10 @@
         <v>113.09004145357</v>
       </c>
       <c r="C824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D824" t="n">
-        <v>0.1786493548355101</v>
+        <v>0.1166769042594619</v>
       </c>
     </row>
     <row r="825">
@@ -11985,10 +11985,10 @@
         <v>113.154870338644</v>
       </c>
       <c r="C825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D825" t="n">
-        <v>0.08144455945519898</v>
+        <v>0.07455187022276147</v>
       </c>
     </row>
     <row r="826">
@@ -11999,10 +11999,10 @@
         <v>113.760312199449</v>
       </c>
       <c r="C826" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D826" t="n">
-        <v>0.308541572707201</v>
+        <v>0.05265103845121093</v>
       </c>
     </row>
     <row r="827">
@@ -12013,10 +12013,10 @@
         <v>112.876192460885</v>
       </c>
       <c r="C827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D827" t="n">
-        <v>0.1936780668494303</v>
+        <v>0.3621143346964933</v>
       </c>
     </row>
     <row r="828">
@@ -12027,10 +12027,10 @@
         <v>113.151774758095</v>
       </c>
       <c r="C828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D828" t="n">
-        <v>0.05729963795077561</v>
+        <v>0.1278450229578997</v>
       </c>
     </row>
     <row r="829">
@@ -12041,10 +12041,10 @@
         <v>113.125784041664</v>
       </c>
       <c r="C829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D829" t="n">
-        <v>0.1021819799519319</v>
+        <v>0.07851006616636558</v>
       </c>
     </row>
     <row r="830">
@@ -12055,10 +12055,10 @@
         <v>113.280151555364</v>
       </c>
       <c r="C830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D830" t="n">
-        <v>0.2327817061066122</v>
+        <v>0.1904045475104199</v>
       </c>
     </row>
     <row r="831">
@@ -12069,10 +12069,10 @@
         <v>113.827731195748</v>
       </c>
       <c r="C831" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D831" t="n">
-        <v>0.5350959864860629</v>
+        <v>0.1573490548388498</v>
       </c>
     </row>
     <row r="832">
@@ -12083,10 +12083,10 @@
         <v>113.771188397476</v>
       </c>
       <c r="C832" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D832" t="n">
-        <v>0.2905824633289626</v>
+        <v>0.1026206190086599</v>
       </c>
     </row>
     <row r="833">
@@ -12097,10 +12097,10 @@
         <v>113.110382335887</v>
       </c>
       <c r="C833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D833" t="n">
-        <v>0.07087998957070195</v>
+        <v>0.1461891426234917</v>
       </c>
     </row>
   </sheetData>
